--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -294,22 +294,636 @@
     <t>Time of auto or manually defined non-wear (NW) during the day</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The time within ValidDuration of this calendar day which is </t>
-    </r>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Cadence related variables. Cadence is only detected for walking, running and stair-walking</t>
+  </si>
+  <si>
+    <t>Only available when work/leisure diary is given</t>
+  </si>
+  <si>
+    <t>Important Note: These variables are calculated using the direct output of activity detection algorithm with an epoch of 1s. Any sporadic break, misclassification or ambiguity can affect these variables. These variables, except for the combined activity/posture "SitLie", should only be used with consultation of ActiPASS developers</t>
+  </si>
+  <si>
+    <t>replace "SitLie" with the relevant activity/posture/intensity-class to derive corresponding variable name (also see warning above)</t>
+  </si>
+  <si>
+    <t>Important Note: If ProPASS default settings are applied, then these variables are calculated allowing a fixed bout-break of 20s with 0% bout thresholds. 
+However, if bout-calculations options are changed under advanced settings, different bout-break lengths and different bout-thresholds can be selected. Before generating these variables make sure desired settings are applied under ActiPASS advanced options</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 1min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 2min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 3min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 4min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 5min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 10min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 30min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts  equal or larger than 60min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 1 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 2 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 3 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 4 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 5 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 10 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 30 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts larger than 60 min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 1min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 2min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 3min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 4min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 5min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 10min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 30min</t>
+  </si>
+  <si>
+    <t>Time spent on SitLie bouts smaller than 60min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 2 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 3 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 4 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 5 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 10 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 30 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 60 min</t>
+  </si>
+  <si>
+    <t>Frequency (count) of SitLie bouts smaller than 1 min</t>
+  </si>
+  <si>
+    <t>replace "SitLie" with the relevant activity/posture/intensity-class to derive corresponding variable name (also see notice above)</t>
+  </si>
+  <si>
+    <t>A day can be further sub-divided into domains such as 'Work' and 'Leisure' and following variables can be generated for each such sub-domain within a calendar day.  Such variables will be prefixed with the domain (Ex. Work_Duration_1) This additional domain specific data is available only when the additional diary containing such data is included in ActiPASS processing, and also the relevant domain names are specified under "Stat Domains" options before stats generation.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>not flagged as belonging to a sleep-interval</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The  time within ValidDuration of this calendar day which is flagged as</t>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Activity/Posture times and cadence related variables. These variables are defined within "Awake". All times are given in minutes. These variables satisfy the equation:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Awake=Lie+Sit+Stand+Move+Walk+Run+Stair+Cycle+Other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variables related to the bedtime, sleep-interval and awake time. All times are given in minutes. These variables satisfy the equation:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ValidDuration = Awake + SleepInterval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Variables related to exclusions, non-wear and validity. All times are given in minutes. These variables satisfy the equations: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Duration = Excluded + NonWear + ValidDuration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NonWear = AwakeNW +  SlpIntNW
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SitLie_1min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_2min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_3min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_4min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_5min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_10min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_30min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_60min_bouts_TH_1</t>
+  </si>
+  <si>
+    <t>SitLie_2min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_3min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_4min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_5min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_10min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_30min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_60min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_1min_freq_H_1</t>
+  </si>
+  <si>
+    <t>SitLie_1min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_2min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_3min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_4min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_5min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_10min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_30min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_60min_bouts_TL_1</t>
+  </si>
+  <si>
+    <t>SitLie_1min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_2min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_3min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_4min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_5min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_10min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_30min_freq_L_1</t>
+  </si>
+  <si>
+    <t>SitLie_60min_freq_L_1</t>
+  </si>
+  <si>
+    <t> Intensity class name</t>
+  </si>
+  <si>
+    <t>INT1_1</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as sedentary on day 1</t>
+  </si>
+  <si>
+    <t>INT2_1</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as low physical activity on day 1</t>
+  </si>
+  <si>
+    <t>INT2_Amb_1</t>
+  </si>
+  <si>
+    <t>Time spent on ambulatory activities classified as low physical activity  (standing excluded) on day 1</t>
+  </si>
+  <si>
+    <t>INT3_1</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as moderate physical activity on day 1</t>
+  </si>
+  <si>
+    <t>"Sit" and "Lie"</t>
+  </si>
+  <si>
+    <t>"Stand", "Move", "Walk_Slow" (walking with a cadence lower than 100/min), and "Other" with no periodic movements and "Other" with periodic movements with a cadence lower than 100/min)</t>
+  </si>
+  <si>
+    <t>"Move", "Walk_Slow" (walking with a cadence lower than 100/min), "Other" with no periodic movements, and "Other" with periodic movements with a cadence lower than 100/min)</t>
+  </si>
+  <si>
+    <t>INT4_1</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as vigorous  physical activity on day 1</t>
+  </si>
+  <si>
+    <t>INT34_1</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as moderate and vigorous  physical activity on day 1</t>
+  </si>
+  <si>
+    <t>"INT3" and "INT4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time spent on different energy expenditure intensity classes </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time percentiles of continuous segments of activity/posture/intensity-classes  and breaks of activity/posture/intensity-classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The posture </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SitLie"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Other, INT1, INT2, INT2_Amb, INT3, INT4, INT34
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bouts related variables of  activity/posture/intensity-classes.   The combined posture "SitLie" is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Other,INT1, INT2, INT2_Amb, INT3, INT4, INT34</t>
+    </r>
+  </si>
+  <si>
+    <t>How times are derived</t>
+  </si>
+  <si>
+    <t>Please see following publications for more info about cadence cutoffs for intensity classes</t>
+  </si>
+  <si>
+    <t>"Walk" (with a cadence between 100-135/min) and "Other" with periodic movements with a cadence between 100-135/min</t>
+  </si>
+  <si>
+    <t>"Run", "Cycle", "Stair", "Walk" with a cadence higher than 135/min , "Other" with periodic movement with a cadence higher than or equal to 135/min</t>
+  </si>
+  <si>
+    <t>LieStill_1</t>
+  </si>
+  <si>
+    <t>The total time of possible sleep outside a bedtime (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.). In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
+  </si>
+  <si>
+    <t>Time of lying. If LieStill is defined, time of 'Lie' also contains that time.</t>
+  </si>
+  <si>
+    <t>Total sleep time within ValidDuration of this calendar day</t>
+  </si>
+  <si>
+    <t>ActiPASS Version 1.50 (or higher) Variable Definitions</t>
+  </si>
+  <si>
+    <r>
+      <t>The time of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NW outside any periods flagged as sleep-intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not a part of Awake_1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>variable below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The time of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NW inside any periods flagged as sleep-intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>not a part of SleepInterval_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The  time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>within ValidDuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of this calendar day which is flagged as</t>
     </r>
     <r>
       <rPr>
@@ -331,136 +945,25 @@
     </r>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Cadence related variables. Cadence is only detected for walking, running and stair-walking</t>
-  </si>
-  <si>
-    <t>Only available when work/leisure diary is given</t>
-  </si>
-  <si>
-    <t>Important Note: These variables are calculated using the direct output of activity detection algorithm with an epoch of 1s. Any sporadic break, misclassification or ambiguity can affect these variables. These variables, except for the combined activity/posture "SitLie", should only be used with consultation of ActiPASS developers</t>
-  </si>
-  <si>
-    <t>replace "SitLie" with the relevant activity/posture/intensity-class to derive corresponding variable name (also see warning above)</t>
-  </si>
-  <si>
-    <t>Important Note: If ProPASS default settings are applied, then these variables are calculated allowing a fixed bout-break of 20s with 0% bout thresholds. 
-However, if bout-calculations options are changed under advanced settings, different bout-break lengths and different bout-thresholds can be selected. Before generating these variables make sure desired settings are applied under ActiPASS advanced options</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 1min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 2min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 3min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 4min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 5min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 10min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 30min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts  equal or larger than 60min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 1 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 2 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 3 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 4 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 5 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 10 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 30 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts larger than 60 min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 1min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 2min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 3min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 4min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 5min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 10min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 30min</t>
-  </si>
-  <si>
-    <t>Time spent on SitLie bouts smaller than 60min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 2 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 3 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 4 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 5 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 10 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 30 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 60 min</t>
-  </si>
-  <si>
-    <t>Frequency (count) of SitLie bouts smaller than 1 min</t>
-  </si>
-  <si>
-    <t>replace "SitLie" with the relevant activity/posture/intensity-class to derive corresponding variable name (also see notice above)</t>
-  </si>
-  <si>
-    <t>A day can be further sub-divided into domains such as 'Work' and 'Leisure' and following variables can be generated for each such sub-domain within a calendar day.  Such variables will be prefixed with the domain (Ex. Work_Duration_1) This additional domain specific data is available only when the additional diary containing such data is included in ActiPASS processing, and also the relevant domain names are specified under "Stat Domains" options before stats generation.</t>
-  </si>
-  <si>
+    <r>
+      <t>The time</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Activity/Posture times and cadence related variables. These variables are defined within "Awake". All times are given in minutes. These variables satisfy the equation:  </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> within ValidDuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of this calendar day which is </t>
     </r>
     <r>
       <rPr>
@@ -469,448 +972,35 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Awake=Lie+Sit+Stand+Move+Walk+Run+Stair+Cycle+Other</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variables related to the bedtime, sleep-interval and awake time. All times are given in minutes. These variables satisfy the equation:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ValidDuration = Awake + SleepInterval</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Variables related to exclusions, non-wear and validity. All times are given in minutes. These variables satisfy the equations: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Duration = Excluded + NonWear + ValidDuration
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NonWear = AwakeNW +  SlpIntNW
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The time of NW </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>outside</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> any periods flagged as sleep-intervals. There could be more than one sleep-intervals happening for a given calendar day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The time of NW </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>inside</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> any periods flagged as sleep-intervals. There could be more than one sleep-intervals happening for a given calendar day</t>
-    </r>
-  </si>
-  <si>
-    <t>SitLie_1min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_1min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_1min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_1min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_freq_L_1</t>
-  </si>
-  <si>
-    <t> Intensity class name</t>
-  </si>
-  <si>
-    <t>INT1_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as sedentary on day 1</t>
-  </si>
-  <si>
-    <t>INT2_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as low physical activity on day 1</t>
-  </si>
-  <si>
-    <t>INT2_Amb_1</t>
-  </si>
-  <si>
-    <t>Time spent on ambulatory activities classified as low physical activity  (standing excluded) on day 1</t>
-  </si>
-  <si>
-    <t>INT3_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as moderate physical activity on day 1</t>
-  </si>
-  <si>
-    <t>"Sit" and "Lie"</t>
-  </si>
-  <si>
-    <t>"Stand", "Move", "Walk_Slow" (walking with a cadence lower than 100/min), and "Other" with no periodic movements and "Other" with periodic movements with a cadence lower than 100/min)</t>
-  </si>
-  <si>
-    <t>"Move", "Walk_Slow" (walking with a cadence lower than 100/min), "Other" with no periodic movements, and "Other" with periodic movements with a cadence lower than 100/min)</t>
-  </si>
-  <si>
-    <t>INT4_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as vigorous  physical activity on day 1</t>
-  </si>
-  <si>
-    <t>INT34_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as moderate and vigorous  physical activity on day 1</t>
-  </si>
-  <si>
-    <t>"INT3" and "INT4"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time spent on different energy expenditure intensity classes </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Time percentiles of continuous segments of activity/posture/intensity-classes  and breaks of activity/posture/intensity-classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The posture </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"SitLie"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Other, INT1, INT2, INT2_Amb, INT3, INT4, INT34
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bouts related variables of  activity/posture/intensity-classes.   The combined posture "SitLie" is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Other,INT1, INT2, INT2_Amb, INT3, INT4, INT34</t>
-    </r>
-  </si>
-  <si>
-    <t>How times are derived</t>
-  </si>
-  <si>
-    <t>Please see following publications for more info about cadence cutoffs for intensity classes</t>
-  </si>
-  <si>
-    <t>Influence of Anthropometrics on Step-Rate Thresholds for Moderate and Vigorous Physical Activity in Older Adults: Scientific Modeling Study
+      <t>not flagged as belonging to a sleep-interval</t>
+    </r>
+  </si>
+  <si>
+    <t>References:
+Influence of Anthropometrics on Step-Rate Thresholds for Moderate and Vigorous Physical Activity in Older Adults: Scientific Modeling Study
 DOI: 10.2196/12363
-Tudor-Locke C, Han H, Aguiar EJ, et alHow fast is fast enough? Walking cadence (steps/min) as a practical estimate of intensity in adults: a narrative reviewBritish Journal of Sports Medicine 2018;52:776-788.</t>
-  </si>
-  <si>
-    <t>"Walk" (with a cadence between 100-135/min) and "Other" with periodic movements with a cadence between 100-135/min</t>
-  </si>
-  <si>
-    <t>"Run", "Cycle", "Stair", "Walk" with a cadence higher than 135/min , "Other" with periodic movement with a cadence higher than or equal to 135/min</t>
-  </si>
-  <si>
-    <t>LieStill_1</t>
-  </si>
-  <si>
-    <t>The total time of possible sleep outside a bedtime (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.). In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
-  </si>
-  <si>
-    <t>Time of lying. If LieStill is defined, time of 'Lie' also contains that time.</t>
-  </si>
-  <si>
-    <t>Total sleep time within ValidDuration of this calendar day</t>
-  </si>
-  <si>
-    <t>ActiPASS Version 1.50 Variable Definitions</t>
+Tudor-Locke C, Han H, Aguiar EJ, et alHow fast is fast enough? Walking cadence (steps/min) as a practical estimate of intensity in adults: a narrative reviewBritish Journal of Sports Medicine 2018;52:776-788.
+% activity to MET translation (these values are used to give each-epoch an equivalent 'MET' value. In other words we create a continuous variable with a resolution of 1s
+Settings.MET_SI=0.90;
+Settings.MET_LieStill=0.95;
+Settings.MET_Lie=1.0;
+Settings.MET_Sit=1.3;
+Settings.MET_Stand=1.55;
+Settings.MET_Move=2.0;
+Settings.Wlk_Low_MET=2;
+Settings.Wlk_Fast_MET=4;
+Settings.Wlk_VFast_MET=7;
+Settings.MET_Running=10;
+Settings.MET_Stairs=8;
+Settings.MET_Cycle=7;
+Settings.MET_Other=2; % "Other" with no periodicity falls into light physical activity and given a fixed MET value of 2, "Other" with periodicity as classified similar to Walk.
+% Then above continuous variable is discretized back into the categorical intensity classes given below with given cutoffs
+Settings.PA_Slp=0.0;
+Settings.PA_SED=0.95;  % lieStill belongs to sedentary
+Settings.PA_LPA=1.5;
+Settings.PA_LPA_Amb=1.6; %introduce another called LPA_ambulatory to seperate standing from other LPA activities
+Settings.PA_MPA=3.0;
+Settings.PA_VPA=6.0;</t>
   </si>
 </sst>
 </file>
@@ -1531,17 +1621,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="3" width="79" style="3" customWidth="1"/>
+    <col min="2" max="2" width="79" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="30" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1555,7 +1648,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.75" thickTop="1">
@@ -1610,7 +1703,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
@@ -1621,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1694,7 +1787,7 @@
     </row>
     <row r="20" spans="1:3" s="15" customFormat="1" ht="90">
       <c r="B20" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16"/>
     </row>
@@ -1704,7 +1797,7 @@
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
       <c r="B22" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -1735,21 +1828,21 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="45">
       <c r="A26" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3" ht="45">
       <c r="A27" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="C27" s="4"/>
     </row>
@@ -1764,7 +1857,7 @@
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
       <c r="B29" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="6"/>
     </row>
@@ -1773,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="C30" s="10"/>
     </row>
@@ -1782,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C31" s="10"/>
     </row>
@@ -1791,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C32" s="4"/>
     </row>
@@ -1806,15 +1899,15 @@
     </row>
     <row r="34" spans="1:3" ht="45">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
       <c r="B35" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="6"/>
     </row>
@@ -1823,7 +1916,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1935,92 +2028,92 @@
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1">
       <c r="C49" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1">
       <c r="B50" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="90.75" thickBot="1">
+    </row>
+    <row r="51" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
       <c r="A51" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="45">
       <c r="A53" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45">
       <c r="A54" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1">
       <c r="A57" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1">
@@ -2030,7 +2123,7 @@
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2059,15 +2152,15 @@
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" ht="120">
       <c r="B65" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2144,299 +2237,299 @@
     </row>
     <row r="77" spans="1:3" s="5" customFormat="1" ht="90">
       <c r="B77" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="34"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" s="34"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C82" s="34"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" s="34"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C84" s="34"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85" s="34"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86" s="34"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" s="34"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C88" s="34"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="34"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C91" s="34"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C92" s="34"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C93" s="34"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" s="34"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="34"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C96" s="34"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" s="34"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98" s="34"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C99" s="34"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" s="34"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C102" s="34"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103" s="34"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C104" s="34"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" s="34"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" s="34"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C107" s="34"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="34"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C109" s="34"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C110" s="34"/>
     </row>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -247,12 +247,6 @@
   </si>
   <si>
     <t>The total times of sleep within a bedtime. This is also the time of sleep inside sleep_intervals by definition of sleep-interval.</t>
-  </si>
-  <si>
-    <t>Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. Not available at the moment for SCAPIS.</t>
-  </si>
-  <si>
-    <t>Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. Not available at the moment for SCAPIS.</t>
   </si>
   <si>
     <t xml:space="preserve">Auto detected preliminary quality check (QC) flag. QC flag is auto detected using predefined outlier criteria. Additionally technical errors can also generate QC flag. </t>
@@ -1002,15 +996,28 @@
 Settings.PA_MPA=3.0;
 Settings.PA_VPA=6.0;</t>
   </si>
+  <si>
+    <t>Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. Not available for ProPASS tables.</t>
+  </si>
+  <si>
+    <t>Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. Not available for ProPASS tables.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1240,99 +1247,99 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1621,26 +1628,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.73046875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="30" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" ht="19.899999999999999" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.65" thickTop="1"/>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,10 +1655,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.75" thickTop="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.9" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1659,12 +1666,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="28.5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -1677,12 +1684,12 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1695,37 +1702,37 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.5">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>76</v>
+      <c r="B9" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.5">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>77</v>
+      <c r="B10" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="19" customFormat="1" ht="60">
-      <c r="B12" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="20"/>
+    <row r="12" spans="1:3" s="18" customFormat="1" ht="42.75">
+      <c r="B12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
@@ -1754,12 +1761,12 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="28.5">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1785,19 +1792,19 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" s="15" customFormat="1" ht="90">
-      <c r="B20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" s="15" customFormat="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
+    <row r="20" spans="1:3" s="14" customFormat="1" ht="85.5">
+      <c r="B20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" s="14" customFormat="1">
+      <c r="B21" s="16"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B22" s="24" t="s">
-        <v>133</v>
+      <c r="B22" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -1824,25 +1831,25 @@
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="45">
+    <row r="26" spans="1:3" ht="42.75">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" ht="45">
+    <row r="27" spans="1:3" ht="42.75">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C27" s="4"/>
     </row>
@@ -1851,31 +1858,31 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B29" s="24" t="s">
-        <v>132</v>
+      <c r="B29" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" ht="30">
+    <row r="30" spans="1:3" ht="28.5">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" ht="90">
+    <row r="31" spans="1:3" ht="85.5">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C31" s="10"/>
     </row>
@@ -1884,11 +1891,11 @@
         <v>20</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="30">
+    <row r="33" spans="1:3" ht="28.5">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1897,17 +1904,17 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="45">
+    <row r="34" spans="1:3" ht="42.75">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B35" s="24" t="s">
-        <v>131</v>
+      <c r="B35" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="C35" s="6"/>
     </row>
@@ -1916,7 +1923,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1929,7 +1936,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1947,12 +1954,12 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" ht="45">
+    <row r="40" spans="1:3" ht="42.75">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -1999,12 +2006,12 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="4"/>
     </row>
@@ -2022,108 +2029,108 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1">
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="5" customFormat="1">
+      <c r="B50" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A51" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.5">
+      <c r="A53" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.5">
+      <c r="A54" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1">
-      <c r="B50" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="5" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A51" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="45">
-      <c r="A53" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="45">
-      <c r="A54" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30">
-      <c r="A56" s="28" t="s">
+    <row r="57" spans="1:3" s="5" customFormat="1">
+      <c r="A57" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1">
-      <c r="A57" s="28" t="s">
+      <c r="C57" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="B59" s="22" t="s">
-        <v>92</v>
+      <c r="B59" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2139,7 +2146,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2150,17 +2157,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" ht="120">
-      <c r="B65" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>94</v>
+    <row r="65" spans="1:3" s="5" customFormat="1" ht="99.75">
+      <c r="B65" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="C66" s="32" t="s">
-        <v>95</v>
+      <c r="C66" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2170,7 +2177,7 @@
       <c r="B67" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="32"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
@@ -2179,7 +2186,7 @@
       <c r="B68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="33"/>
+      <c r="C68" s="32"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
@@ -2188,7 +2195,7 @@
       <c r="B69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="33"/>
+      <c r="C69" s="32"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
@@ -2197,7 +2204,7 @@
       <c r="B70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="33"/>
+      <c r="C70" s="32"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
@@ -2206,7 +2213,7 @@
       <c r="B71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="33"/>
+      <c r="C71" s="32"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
@@ -2215,7 +2222,7 @@
       <c r="B72" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="33"/>
+      <c r="C72" s="32"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
@@ -2224,314 +2231,314 @@
       <c r="B73" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="33"/>
-    </row>
-    <row r="74" spans="1:3" ht="30">
+      <c r="C73" s="32"/>
+    </row>
+    <row r="74" spans="1:3" ht="28.5">
       <c r="A74" t="s">
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="33"/>
-    </row>
-    <row r="77" spans="1:3" s="5" customFormat="1" ht="90">
-      <c r="B77" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="C74" s="32"/>
+    </row>
+    <row r="77" spans="1:3" s="5" customFormat="1" ht="71.25">
+      <c r="B77" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="C80" s="33"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="C81" s="33"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="34"/>
+        <v>98</v>
+      </c>
+      <c r="C82" s="33"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="C83" s="33"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="34"/>
+        <v>100</v>
+      </c>
+      <c r="C84" s="33"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="C85" s="33"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="C87" s="33"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="C88" s="33"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="C89" s="33"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="C90" s="33"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="C91" s="33"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="C92" s="33"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="C93" s="33"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="C94" s="33"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="C95" s="33"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="34"/>
+        <v>112</v>
+      </c>
+      <c r="C96" s="33"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="C98" s="33"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="C99" s="33"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="34"/>
+        <v>116</v>
+      </c>
+      <c r="C100" s="33"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="C101" s="33"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="C102" s="33"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C103" s="34"/>
+        <v>126</v>
+      </c>
+      <c r="C103" s="33"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C104" s="34"/>
+        <v>119</v>
+      </c>
+      <c r="C104" s="33"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="34"/>
+        <v>120</v>
+      </c>
+      <c r="C105" s="33"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="C106" s="33"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C107" s="34"/>
+        <v>122</v>
+      </c>
+      <c r="C107" s="33"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C109" s="34"/>
+        <v>124</v>
+      </c>
+      <c r="C109" s="33"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="C110" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasan\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B1693-28CE-4F22-A155-4E723B0A2E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="12090"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
   <si>
     <t>varNames</t>
   </si>
@@ -1002,11 +1003,77 @@
   <si>
     <t>Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. Not available for ProPASS tables.</t>
   </si>
+  <si>
+    <t>Day_QC_1</t>
+  </si>
+  <si>
+    <t>NotEnoughWear_1</t>
+  </si>
+  <si>
+    <t>NoWlk_1</t>
+  </si>
+  <si>
+    <t>TooMuchOther_1</t>
+  </si>
+  <si>
+    <t>TooMuchStair_1</t>
+  </si>
+  <si>
+    <t>NoSleepInt_1</t>
+  </si>
+  <si>
+    <t>NumPrimaryBDs_1</t>
+  </si>
+  <si>
+    <t>NumExtraBDs_1</t>
+  </si>
+  <si>
+    <t>The auto detected quality check flag for the day. ProPASS wide-format table contains days only days where this flag is "OK"</t>
+  </si>
+  <si>
+    <t>A flag indicating if the day has less than 30s of walking</t>
+  </si>
+  <si>
+    <t>When a day has not enough walking, it affects the individual calibration (refrence-positions) and it can then lead to less accurate classifications</t>
+  </si>
+  <si>
+    <t>A flag indicating if the day has not enough wear time (20 hrs). Should always be 0 under ProPASS mode</t>
+  </si>
+  <si>
+    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then it's a problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flag indicating if more than 30 minutes of "other" exist in the day </t>
+  </si>
+  <si>
+    <t>A flag indicating more than 120 minutes of stair-walking present in the day.</t>
+  </si>
+  <si>
+    <t>Too much stair walking most probably means walking/hiking in steep hills,  confusion with bicycling (somewhat rare but possible) etc.</t>
+  </si>
+  <si>
+    <t>A sleep-interval (a mid-point of a sleep interval to be precise) is not found within the day</t>
+  </si>
+  <si>
+    <t>This is not necessarily a problem. If the missing sleep is a technical problem, this day will then have much higher sedentary times than the other days</t>
+  </si>
+  <si>
+    <t>Number of primary bedtimes (mid points) found within the current day</t>
+  </si>
+  <si>
+    <t>Number of possible extra bedtimes found within the current day</t>
+  </si>
+  <si>
+    <t>Sleep algorithms is used only within these primary bedtimes</t>
+  </si>
+  <si>
+    <t>Slepp algorithm is not used for extra bedtimes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -1329,6 +1396,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1337,9 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1625,29 +1692,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.73046875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" ht="19.899999999999999" thickBot="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A1" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
     </row>
-    <row r="2" spans="1:3" ht="14.65" thickTop="1"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickTop="1"/>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.9" thickTop="1">
+    <row r="4" spans="1:3" ht="29.4" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1666,7 +1733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5">
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1751,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="28.5">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1702,22 +1769,22 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.5">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>199</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.5">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1728,7 +1795,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="18" customFormat="1" ht="42.75">
+    <row r="12" spans="1:3" s="18" customFormat="1" ht="57.6">
       <c r="B12" s="20" t="s">
         <v>78</v>
       </c>
@@ -1761,7 +1828,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="28.5">
+    <row r="16" spans="1:3" ht="28.8">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1788,762 +1855,846 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:3" ht="28.8">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" s="14" customFormat="1" ht="85.5">
-      <c r="B20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" s="14" customFormat="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B22" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="6"/>
+    <row r="20" spans="1:3" ht="28.8">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="42.75">
+        <v>206</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="42.75">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>194</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B29" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="28.5">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" ht="85.5">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
+      <c r="B28" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" s="14" customFormat="1">
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
+      <c r="B30" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>191</v>
+        <v>15</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="28.5">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="42.75">
+    <row r="34" spans="1:3" ht="43.2">
       <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B35" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="43.2">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>190</v>
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
+      <c r="B37" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="28.8">
       <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="86.4">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="42.75">
+        <v>19</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="43.2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
+      <c r="B43" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="43.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="45.75" customHeight="1">
-      <c r="A48" t="s">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" s="5" customFormat="1">
-      <c r="C49" s="22" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1">
+      <c r="C57" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1">
-      <c r="B50" s="22" t="s">
+    <row r="58" spans="1:3" s="5" customFormat="1">
+      <c r="B58" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A51" s="25" t="s">
+    <row r="59" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A59" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C59" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="27" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B60" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C60" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.5">
-      <c r="A53" s="27" t="s">
+    <row r="61" spans="1:3" ht="28.8">
+      <c r="A61" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B61" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C61" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.5">
-      <c r="A54" s="27" t="s">
+    <row r="62" spans="1:3" ht="28.8">
+      <c r="A62" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B62" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C62" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="27" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B63" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C63" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="27" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B64" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C64" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1">
-      <c r="A57" s="27" t="s">
+    <row r="65" spans="1:3" s="5" customFormat="1">
+      <c r="A65" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B65" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C65" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="B59" s="21" t="s">
+    <row r="66" spans="1:3" s="5" customFormat="1">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1">
+      <c r="B67" s="21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" ht="99.75">
-      <c r="B65" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="C66" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="32"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="32"/>
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="32"/>
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1" ht="100.8">
+      <c r="B73" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="33"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="33"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="33"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="32"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="32"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="32"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="32"/>
-    </row>
-    <row r="74" spans="1:3" ht="28.5">
-      <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="32"/>
-    </row>
-    <row r="77" spans="1:3" s="5" customFormat="1" ht="71.25">
-      <c r="B77" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="C78" s="33"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>132</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>127</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="33"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C80" s="33"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>97</v>
+        <v>36</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C81" s="33"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="28.8">
       <c r="A82" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="33"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="33"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="33"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>139</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="33"/>
+    <row r="85" spans="1:3" s="5" customFormat="1" ht="72">
+      <c r="B85" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="33"/>
+        <v>132</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="34"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="34"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="33"/>
+        <v>135</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="33"/>
+        <v>136</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="34"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="34"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="33"/>
+        <v>138</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="34"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="33"/>
+        <v>139</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="34"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="33"/>
+        <v>147</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="34"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="33"/>
+        <v>140</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="34"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C97" s="33"/>
+        <v>141</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="34"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>151</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" s="33"/>
+        <v>142</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="34"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="33"/>
+        <v>143</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="34"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="33"/>
+        <v>144</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="33"/>
+        <v>145</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="34"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="34"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="33"/>
+        <v>148</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="34"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="33"/>
+        <v>149</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="34"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>158</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="33"/>
+        <v>150</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="34"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="33"/>
+        <v>151</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="34"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="33"/>
+        <v>152</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="34"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="33"/>
+        <v>153</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="34"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="33"/>
+        <v>154</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="34"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="34"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="34"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="34"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="34"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="34"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="34"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="34"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="34"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>163</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="33"/>
+      <c r="C118" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="C79:C110"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="C87:C118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasan\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B1693-28CE-4F22-A155-4E723B0A2E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>varNames</t>
   </si>
@@ -1069,11 +1068,17 @@
   <si>
     <t>Slepp algorithm is not used for extra bedtimes</t>
   </si>
+  <si>
+    <t>Upright_1</t>
+  </si>
+  <si>
+    <t>Time of all upright activities/postures (i.e. Stand + Move + Walk + Run + Stair)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -1692,28 +1697,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1"/>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1725,7 +1730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.4" thickTop="1">
+    <row r="4" spans="1:3" ht="30.75" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1756,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1774,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1800,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="18" customFormat="1" ht="57.6">
+    <row r="12" spans="1:3" s="18" customFormat="1" ht="60">
       <c r="B12" s="20" t="s">
         <v>78</v>
       </c>
@@ -1828,7 +1833,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1860,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="28.8">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -1864,7 +1869,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="28.8">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -1943,7 +1948,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B28" s="17" t="s">
         <v>128</v>
       </c>
@@ -1986,7 +1991,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="43.2">
+    <row r="34" spans="1:3" ht="45">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1995,7 +2000,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="43.2">
+    <row r="35" spans="1:3" ht="45">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2019,7 +2024,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="28.8">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2028,7 +2033,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="86.4">
+    <row r="39" spans="1:3" ht="90">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2051,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" ht="28.8">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2055,7 +2060,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="43.2">
+    <row r="42" spans="1:3" ht="45">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -2087,7 +2092,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -2105,7 +2110,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2">
+    <row r="48" spans="1:3" ht="45">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2162,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="30">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2175,526 +2180,535 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="45.75" customHeight="1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1">
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1">
+      <c r="C58" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="B58" s="22" t="s">
+    <row r="59" spans="1:3" s="5" customFormat="1">
+      <c r="B59" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A59" s="25" t="s">
+    <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A60" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B60" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C60" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="27" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B61" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C61" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8">
-      <c r="A61" s="27" t="s">
+    <row r="62" spans="1:3" ht="30">
+      <c r="A62" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B62" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C62" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8">
-      <c r="A62" s="27" t="s">
+    <row r="63" spans="1:3" ht="30">
+      <c r="A63" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B63" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C63" s="28" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B65" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C65" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1">
-      <c r="A65" s="27" t="s">
+    <row r="66" spans="1:3" s="5" customFormat="1">
+      <c r="A66" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B66" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C66" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-    </row>
     <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1">
+      <c r="B68" s="21" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" ht="100.8">
-      <c r="B73" s="12" t="s">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="120">
+      <c r="B74" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="C74" s="32" t="s">
+    <row r="75" spans="1:3">
+      <c r="C75" s="32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="33"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C76" s="33"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="33"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" s="33"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>74</v>
+        <v>33</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C79" s="33"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C80" s="33"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="33"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>36</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="33"/>
-    </row>
-    <row r="82" spans="1:3" ht="28.8">
-      <c r="A82" t="s">
+      <c r="C82" s="33"/>
+    </row>
+    <row r="83" spans="1:3" ht="30">
+      <c r="A83" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="33"/>
-    </row>
-    <row r="85" spans="1:3" s="5" customFormat="1" ht="72">
-      <c r="B85" s="23" t="s">
+      <c r="C83" s="33"/>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="75">
+      <c r="B86" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C86" s="24" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="34"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="34"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="34"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="34"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" s="34"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>103</v>
+        <v>139</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C95" s="34"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="34"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="34"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="34"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="34"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" s="34"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="34"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>111</v>
+        <v>146</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C103" s="34"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="34"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="34"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="34"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="34"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="34"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="34"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="34"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>126</v>
+        <v>155</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C111" s="34"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C112" s="34"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="34"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" s="34"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C115" s="34"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C116" s="34"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" s="34"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="34"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>163</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="34"/>
+      <c r="C119" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="C87:C118"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C88:C119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="223">
   <si>
     <t>varNames</t>
   </si>
@@ -797,9 +797,6 @@
     <t>How times are derived</t>
   </si>
   <si>
-    <t>Please see following publications for more info about cadence cutoffs for intensity classes</t>
-  </si>
-  <si>
     <t>"Walk" (with a cadence between 100-135/min) and "Other" with periodic movements with a cadence between 100-135/min</t>
   </si>
   <si>
@@ -970,10 +967,87 @@
     </r>
   </si>
   <si>
+    <t>Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. Not available for ProPASS tables.</t>
+  </si>
+  <si>
+    <t>Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. Not available for ProPASS tables.</t>
+  </si>
+  <si>
+    <t>Day_QC_1</t>
+  </si>
+  <si>
+    <t>NotEnoughWear_1</t>
+  </si>
+  <si>
+    <t>NoWlk_1</t>
+  </si>
+  <si>
+    <t>TooMuchOther_1</t>
+  </si>
+  <si>
+    <t>TooMuchStair_1</t>
+  </si>
+  <si>
+    <t>NoSleepInt_1</t>
+  </si>
+  <si>
+    <t>NumPrimaryBDs_1</t>
+  </si>
+  <si>
+    <t>NumExtraBDs_1</t>
+  </si>
+  <si>
+    <t>The auto detected quality check flag for the day. ProPASS wide-format table contains days only days where this flag is "OK"</t>
+  </si>
+  <si>
+    <t>A flag indicating if the day has less than 30s of walking</t>
+  </si>
+  <si>
+    <t>When a day has not enough walking, it affects the individual calibration (refrence-positions) and it can then lead to less accurate classifications</t>
+  </si>
+  <si>
+    <t>A flag indicating if the day has not enough wear time (20 hrs). Should always be 0 under ProPASS mode</t>
+  </si>
+  <si>
+    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then it's a problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flag indicating if more than 30 minutes of "other" exist in the day </t>
+  </si>
+  <si>
+    <t>A flag indicating more than 120 minutes of stair-walking present in the day.</t>
+  </si>
+  <si>
+    <t>Too much stair walking most probably means walking/hiking in steep hills,  confusion with bicycling (somewhat rare but possible) etc.</t>
+  </si>
+  <si>
+    <t>A sleep-interval (a mid-point of a sleep interval to be precise) is not found within the day</t>
+  </si>
+  <si>
+    <t>This is not necessarily a problem. If the missing sleep is a technical problem, this day will then have much higher sedentary times than the other days</t>
+  </si>
+  <si>
+    <t>Number of primary bedtimes (mid points) found within the current day</t>
+  </si>
+  <si>
+    <t>Number of possible extra bedtimes found within the current day</t>
+  </si>
+  <si>
+    <t>Sleep algorithms is used only within these primary bedtimes</t>
+  </si>
+  <si>
+    <t>Slepp algorithm is not used for extra bedtimes</t>
+  </si>
+  <si>
+    <t>Upright_1</t>
+  </si>
+  <si>
+    <t>Time of all upright activities/postures (i.e. Stand + Move + Walk + Run + Stair)</t>
+  </si>
+  <si>
     <t>References:
-Influence of Anthropometrics on Step-Rate Thresholds for Moderate and Vigorous Physical Activity in Older Adults: Scientific Modeling Study
-DOI: 10.2196/12363
-Tudor-Locke C, Han H, Aguiar EJ, et alHow fast is fast enough? Walking cadence (steps/min) as a practical estimate of intensity in adults: a narrative reviewBritish Journal of Sports Medicine 2018;52:776-788.
+Influence of Anthropometrics on Step-Rate Thresholds for Moderate and Vigorous Physical Activity in Older Adults: Scientific Modeling Study DOI: 10.2196/12363
+How fast is fast enough? Walking cadence (steps/min) as a practical estimate of intensity in adults: a narrative review http://dx.doi.org/10.1136/bjsports-2017-097628
 % activity to MET translation (these values are used to give each-epoch an equivalent 'MET' value. In other words we create a continuous variable with a resolution of 1s
 Settings.MET_SI=0.90;
 Settings.MET_LieStill=0.95;
@@ -989,90 +1063,12 @@
 Settings.MET_Cycle=7;
 Settings.MET_Other=2; % "Other" with no periodicity falls into light physical activity and given a fixed MET value of 2, "Other" with periodicity as classified similar to Walk.
 % Then above continuous variable is discretized back into the categorical intensity classes given below with given cutoffs
-Settings.PA_Slp=0.0;
-Settings.PA_SED=0.95;  % lieStill belongs to sedentary
-Settings.PA_LPA=1.5;
-Settings.PA_LPA_Amb=1.6; %introduce another called LPA_ambulatory to seperate standing from other LPA activities
-Settings.PA_MPA=3.0;
-Settings.PA_VPA=6.0;</t>
-  </si>
-  <si>
-    <t>Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. Not available for ProPASS tables.</t>
-  </si>
-  <si>
-    <t>Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. Not available for ProPASS tables.</t>
-  </si>
-  <si>
-    <t>Day_QC_1</t>
-  </si>
-  <si>
-    <t>NotEnoughWear_1</t>
-  </si>
-  <si>
-    <t>NoWlk_1</t>
-  </si>
-  <si>
-    <t>TooMuchOther_1</t>
-  </si>
-  <si>
-    <t>TooMuchStair_1</t>
-  </si>
-  <si>
-    <t>NoSleepInt_1</t>
-  </si>
-  <si>
-    <t>NumPrimaryBDs_1</t>
-  </si>
-  <si>
-    <t>NumExtraBDs_1</t>
-  </si>
-  <si>
-    <t>The auto detected quality check flag for the day. ProPASS wide-format table contains days only days where this flag is "OK"</t>
-  </si>
-  <si>
-    <t>A flag indicating if the day has less than 30s of walking</t>
-  </si>
-  <si>
-    <t>When a day has not enough walking, it affects the individual calibration (refrence-positions) and it can then lead to less accurate classifications</t>
-  </si>
-  <si>
-    <t>A flag indicating if the day has not enough wear time (20 hrs). Should always be 0 under ProPASS mode</t>
-  </si>
-  <si>
-    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then it's a problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A flag indicating if more than 30 minutes of "other" exist in the day </t>
-  </si>
-  <si>
-    <t>A flag indicating more than 120 minutes of stair-walking present in the day.</t>
-  </si>
-  <si>
-    <t>Too much stair walking most probably means walking/hiking in steep hills,  confusion with bicycling (somewhat rare but possible) etc.</t>
-  </si>
-  <si>
-    <t>A sleep-interval (a mid-point of a sleep interval to be precise) is not found within the day</t>
-  </si>
-  <si>
-    <t>This is not necessarily a problem. If the missing sleep is a technical problem, this day will then have much higher sedentary times than the other days</t>
-  </si>
-  <si>
-    <t>Number of primary bedtimes (mid points) found within the current day</t>
-  </si>
-  <si>
-    <t>Number of possible extra bedtimes found within the current day</t>
-  </si>
-  <si>
-    <t>Sleep algorithms is used only within these primary bedtimes</t>
-  </si>
-  <si>
-    <t>Slepp algorithm is not used for extra bedtimes</t>
-  </si>
-  <si>
-    <t>Upright_1</t>
-  </si>
-  <si>
-    <t>Time of all upright activities/postures (i.e. Stand + Move + Walk + Run + Stair)</t>
+Settings.PA_Slp=0.0; % 
+Settings.PA_SED=0.95;  % cutoff for variable INT1 (lieStill belongs to sedentary)
+Settings.PA_LPA=1.5; % cutoff for variable INT2
+Settings.PA_LPA_Amb=1.6;  %  cutoff for variable INT2_Amb (introduce to seperate standing from other LPA activities)
+Settings.PA_MPA=3.0; % cutoff for variable  INT3 
+Settings.PA_VPA=6.0; %  cutoff for variable INT4</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1713,7 +1709,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1779,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>91</v>
@@ -1790,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>91</v>
@@ -1862,86 +1858,86 @@
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1996,7 +1992,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34" s="4"/>
     </row>
@@ -2005,7 +2001,7 @@
         <v>87</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -2029,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="10"/>
     </row>
@@ -2038,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="10"/>
     </row>
@@ -2047,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -2062,10 +2058,10 @@
     </row>
     <row r="42" spans="1:3" ht="45">
       <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2079,7 +2075,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -2182,10 +2178,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C56" s="4"/>
     </row>
@@ -2207,9 +2203,6 @@
       <c r="B59" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
       <c r="A60" s="25" t="s">
@@ -2219,7 +2212,7 @@
         <v>46</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2263,7 +2256,7 @@
         <v>172</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2274,7 +2267,7 @@
         <v>177</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
   <si>
     <t>varNames</t>
   </si>
@@ -27,9 +27,6 @@
     <t>SubjectID</t>
   </si>
   <si>
-    <t>QC</t>
-  </si>
-  <si>
     <t>Batch</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
   </si>
   <si>
     <t>Number of days present in the accelerometer data after automatically trimming Non-wear (NW) days in the beginning and end</t>
-  </si>
-  <si>
-    <t>Following variables are derived daily. The suffix (in this case "_1") indicate the day number. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see above) are listed in the table.</t>
   </si>
   <si>
     <t>Whether the  is a work-day or a leisure day. See definitions of number of work and leisure days above. Possible values "Work", "Leisure" or empty</t>
@@ -683,115 +677,6 @@
   </si>
   <si>
     <t xml:space="preserve">Time spent on different energy expenditure intensity classes </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Time percentiles of continuous segments of activity/posture/intensity-classes  and breaks of activity/posture/intensity-classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The posture </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"SitLie"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Other, INT1, INT2, INT2_Amb, INT3, INT4, INT34
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bouts related variables of  activity/posture/intensity-classes.   The combined posture "SitLie" is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Other,INT1, INT2, INT2_Amb, INT3, INT4, INT34</t>
-    </r>
   </si>
   <si>
     <t>How times are derived</t>
@@ -1069,6 +954,127 @@
 Settings.PA_LPA_Amb=1.6;  %  cutoff for variable INT2_Amb (introduce to seperate standing from other LPA activities)
 Settings.PA_MPA=3.0; % cutoff for variable  INT3 
 Settings.PA_VPA=6.0; %  cutoff for variable INT4</t>
+  </si>
+  <si>
+    <t>Following variables are derived daily. The suffix (in this case "_1") indicate the day number. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see below) are listed in the table.</t>
+  </si>
+  <si>
+    <t>QC_Status</t>
+  </si>
+  <si>
+    <t>possible values: "OK", "Check" or "NotOK"</t>
+  </si>
+  <si>
+    <t>Ex. 2022-03-28 15.12.34</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bouts related variables of  activity/posture/intensity-classes.   The combined posture "SitLie" is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Upright, Other,INT1, INT2, INT2_Amb, INT3, INT4, INT34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time percentiles of continuous segments of activity/posture/intensity-classes  and breaks of activity/posture/intensity-classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The posture </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SitLie"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Upright, Other, INT1, INT2, INT2_Amb, INT3, INT4, INT34
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1162,14 +1168,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF833C0C"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1178,6 +1176,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1319,7 +1325,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1361,14 +1367,8 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1"/>
@@ -1381,10 +1381,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1393,8 +1393,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="5"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,6 +1408,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1696,257 +1702,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.75" thickTop="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.4" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>196</v>
+      <c r="B10" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="18" customFormat="1" ht="60">
-      <c r="B12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
+      <c r="B12" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.8">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="30">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="30">
+        <v>202</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>211</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="90">
-      <c r="B28" s="17" t="s">
-        <v>128</v>
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
+      <c r="B28" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="C28" s="15"/>
     </row>
@@ -1955,748 +1967,748 @@
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B30" s="23" t="s">
-        <v>131</v>
+      <c r="B30" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="45">
+    <row r="34" spans="1:3" ht="43.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="43.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
+      <c r="B37" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="28.8">
+      <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B37" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="30">
-      <c r="A38" t="s">
+      <c r="B38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="86.4">
+      <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="90">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
       <c r="B39" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="28.8">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="45">
+    <row r="42" spans="1:3" ht="43.2">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B43" s="23" t="s">
-        <v>129</v>
+      <c r="B43" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
       <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="43.2">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="45">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="30">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
       <c r="B54" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" ht="45.75" customHeight="1">
       <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1">
+      <c r="C58" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="5" customFormat="1">
+      <c r="B59" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A60" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="C58" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="B59" s="22" t="s">
+      <c r="C60" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8">
+      <c r="A62" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8">
+      <c r="A63" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A60" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30">
-      <c r="A62" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="28" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="25" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="30">
-      <c r="A63" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="28" t="s">
+      <c r="B65" s="26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="27" t="s">
+      <c r="C65" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1">
+      <c r="A66" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B66" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="27" t="s">
+      <c r="C66" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="B68" s="21" t="s">
-        <v>90</v>
+      <c r="B68" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="120">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
       <c r="B74" s="12" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="32" t="s">
-        <v>93</v>
+      <c r="C75" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="C76" s="31"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="C77" s="31"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="C78" s="31"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="33"/>
+        <v>69</v>
+      </c>
+      <c r="C79" s="31"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="33"/>
+        <v>70</v>
+      </c>
+      <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="31"/>
+    </row>
+    <row r="83" spans="1:3" ht="28.8">
+      <c r="A83" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="33"/>
-    </row>
-    <row r="83" spans="1:3" ht="30">
-      <c r="A83" t="s">
-        <v>37</v>
-      </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="33"/>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="75">
-      <c r="B86" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>94</v>
+        <v>78</v>
+      </c>
+      <c r="C83" s="31"/>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
+      <c r="B86" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="34"/>
+        <v>94</v>
+      </c>
+      <c r="C89" s="32"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="C90" s="32"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="C91" s="32"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="C92" s="32"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="34"/>
+        <v>98</v>
+      </c>
+      <c r="C93" s="32"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="C94" s="32"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" s="34"/>
+        <v>100</v>
+      </c>
+      <c r="C95" s="32"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="C96" s="32"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="C97" s="32"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="C98" s="32"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="C99" s="32"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="C100" s="32"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="C101" s="32"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="C102" s="32"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="C103" s="32"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="C104" s="32"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="C105" s="32"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="C106" s="32"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="34"/>
+        <v>112</v>
+      </c>
+      <c r="C107" s="32"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="C108" s="32"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="C109" s="32"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="C110" s="32"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="34"/>
+        <v>116</v>
+      </c>
+      <c r="C111" s="32"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="34"/>
+        <v>124</v>
+      </c>
+      <c r="C112" s="32"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="C113" s="32"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="C114" s="32"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C115" s="34"/>
+        <v>119</v>
+      </c>
+      <c r="C115" s="32"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="34"/>
+        <v>120</v>
+      </c>
+      <c r="C116" s="32"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="C117" s="32"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="34"/>
+        <v>122</v>
+      </c>
+      <c r="C118" s="32"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="C119" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -930,150 +930,209 @@
     <t>Time of all upright activities/postures (i.e. Stand + Move + Walk + Run + Stair)</t>
   </si>
   <si>
-    <t>References:
+    <t>Following variables are derived daily. The suffix (in this case "_1") indicate the day number. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see below) are listed in the table.</t>
+  </si>
+  <si>
+    <t>QC_Status</t>
+  </si>
+  <si>
+    <t>possible values: "OK", "Check" or "NotOK"</t>
+  </si>
+  <si>
+    <t>Ex. 2022-03-28 15.12.34</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bouts related variables of  activity/posture/intensity-classes.   The combined posture "SitLie" is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Upright, Other,INT1, INT2, INT2_Amb, INT3, INT4, INT34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Time percentiles of continuous segments of activity/posture/intensity-classes  and breaks of activity/posture/intensity-classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The posture </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SitLie"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Upright, Other, INT1, INT2, INT2_Amb, INT3, INT4, INT34
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>References:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF833C0C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 Influence of Anthropometrics on Step-Rate Thresholds for Moderate and Vigorous Physical Activity in Older Adults: Scientific Modeling Study DOI: 10.2196/12363
 How fast is fast enough? Walking cadence (steps/min) as a practical estimate of intensity in adults: a narrative review http://dx.doi.org/10.1136/bjsports-2017-097628
-% activity to MET translation (these values are used to give each-epoch an equivalent 'MET' value. In other words we create a continuous variable with a resolution of 1s
-Settings.MET_SI=0.90;
-Settings.MET_LieStill=0.95;
-Settings.MET_Lie=1.0;
-Settings.MET_Sit=1.3;
-Settings.MET_Stand=1.55;
-Settings.MET_Move=2.0;
-Settings.Wlk_Low_MET=2;
-Settings.Wlk_Fast_MET=4;
-Settings.Wlk_VFast_MET=7;
-Settings.MET_Running=10;
-Settings.MET_Stairs=8;
-Settings.MET_Cycle=7;
-Settings.MET_Other=2; % "Other" with no periodicity falls into light physical activity and given a fixed MET value of 2, "Other" with periodicity as classified similar to Walk.
-% Then above continuous variable is discretized back into the categorical intensity classes given below with given cutoffs
-Settings.PA_Slp=0.0; % 
-Settings.PA_SED=0.95;  % cutoff for variable INT1 (lieStill belongs to sedentary)
-Settings.PA_LPA=1.5; % cutoff for variable INT2
-Settings.PA_LPA_Amb=1.6;  %  cutoff for variable INT2_Amb (introduce to seperate standing from other LPA activities)
-Settings.PA_MPA=3.0; % cutoff for variable  INT3 
-Settings.PA_VPA=6.0; %  cutoff for variable INT4</t>
-  </si>
-  <si>
-    <t>Following variables are derived daily. The suffix (in this case "_1") indicate the day number. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see below) are listed in the table.</t>
-  </si>
-  <si>
-    <t>QC_Status</t>
-  </si>
-  <si>
-    <t>possible values: "OK", "Check" or "NotOK"</t>
-  </si>
-  <si>
-    <t>Ex. 2022-03-28 15.12.34</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bouts related variables of  activity/posture/intensity-classes.   The combined posture "SitLie" is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Activity to MET translation (these values are used to give each-epoch an equivalent 'MET' value. In other words we create a continuous variable with a resolution of 1s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF833C0C"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+MET_SI = 0.90
+MET_LieStill = 0.95
+MET_Lie = 1.0
+MET_Sit = 1.3
+MET_Stand = 1.55
+MET_Move = 2.0
+MET_Walk_Low_ = 2 (&lt; 100 Steps/min)
+MET_Walk_Fast = 4 (&gt;= 100 Steps/min)
+MET_Walk_VeryFast = 7 (&gt;= 135 Steps/min)
+MET_Running = 10
+MET_Stairs = 8
+MET_Cycle = 7
+MET_Other = 2  ("Other" with no periodicity falls into light physical activity and given a fixed MET value of 2, "Other" with periodicity as classified similar to Walk)
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Upright, Other,INT1, INT2, INT2_Amb, INT3, INT4, INT34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Time percentiles of continuous segments of activity/posture/intensity-classes  and breaks of activity/posture/intensity-classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The posture </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"SitLie"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is chosen as an example. These Variables are also derived for following activity/postures as well as intensity classes.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then above continuous variable is discretized back into the categorical intensity classes given below with given cutoffs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF833C0C"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lie, Sit, SitLie, Stand, Move, StandMove,  Walk, Run, Stair, Cycle, Upright, Other, INT1, INT2, INT2_Amb, INT3, INT4, INT34
-</t>
+PA_Slp = 0.9
+PA_INT1 = 0.95 (cutoff for variable INT1; lieStill belongs to sedentary)
+PA_INT2 = 1.5 (cutoff for variable INT2)
+PA_INT2_Amb = 1.6  (cutoff for variable INT2_Amb - introduce to seperate standing from other LPA activities)
+PA_INT3 = 3.0 (cutoff for variable  INT3)
+PA_INT4 = 6.0 (cutoff for variable INT4)</t>
     </r>
   </si>
 </sst>
@@ -1081,7 +1140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1187,6 +1246,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1400,6 +1466,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,12 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1703,24 +1769,24 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>187</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1"/>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1732,7 +1798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.4" thickTop="1">
+    <row r="4" spans="1:3" ht="30.75" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1740,15 +1806,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1759,10 +1825,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1846,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1791,7 +1857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1806,9 +1872,9 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
-      <c r="B12" s="33" t="s">
-        <v>219</v>
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="60">
+      <c r="B12" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="18"/>
     </row>
@@ -1839,7 +1905,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1866,7 +1932,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="28.8">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -1874,10 +1940,10 @@
         <v>202</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -1897,7 +1963,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -1919,7 +1985,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -1956,8 +2022,8 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="90">
+      <c r="B28" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="15"/>
@@ -1999,7 +2065,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="43.2">
+    <row r="34" spans="1:3" ht="45">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2008,7 +2074,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="43.2">
+    <row r="35" spans="1:3" ht="45">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -2032,7 +2098,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="28.8">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2107,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="86.4">
+    <row r="39" spans="1:3" ht="90">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2125,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" ht="28.8">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2068,7 +2134,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="43.2">
+    <row r="42" spans="1:3" ht="45">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -2100,7 +2166,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2184,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2">
+    <row r="48" spans="1:3" ht="45">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2170,7 +2236,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="30">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2238,7 +2304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8">
+    <row r="62" spans="1:3" ht="30">
       <c r="A62" s="25" t="s">
         <v>165</v>
       </c>
@@ -2249,7 +2315,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8">
+    <row r="63" spans="1:3" ht="30">
       <c r="A63" s="25" t="s">
         <v>167</v>
       </c>
@@ -2327,16 +2393,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="120">
       <c r="B74" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="32" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2347,7 +2413,7 @@
       <c r="B76" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
@@ -2356,7 +2422,7 @@
       <c r="B77" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="31"/>
+      <c r="C77" s="33"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
@@ -2365,7 +2431,7 @@
       <c r="B78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="31"/>
+      <c r="C78" s="33"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
@@ -2374,7 +2440,7 @@
       <c r="B79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="31"/>
+      <c r="C79" s="33"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -2383,7 +2449,7 @@
       <c r="B80" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="31"/>
+      <c r="C80" s="33"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
@@ -2392,7 +2458,7 @@
       <c r="B81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="31"/>
+      <c r="C81" s="33"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
@@ -2401,20 +2467,20 @@
       <c r="B82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="31"/>
-    </row>
-    <row r="83" spans="1:3" ht="28.8">
+      <c r="C82" s="33"/>
+    </row>
+    <row r="83" spans="1:3" ht="30">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="31"/>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
+      <c r="C83" s="33"/>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="75">
       <c r="B86" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>92</v>
@@ -2427,7 +2493,7 @@
       <c r="B88" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="34" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2438,7 +2504,7 @@
       <c r="B89" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="32"/>
+      <c r="C89" s="34"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
@@ -2447,7 +2513,7 @@
       <c r="B90" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="32"/>
+      <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
@@ -2456,7 +2522,7 @@
       <c r="B91" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="32"/>
+      <c r="C91" s="34"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
@@ -2465,7 +2531,7 @@
       <c r="B92" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="32"/>
+      <c r="C92" s="34"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
@@ -2474,7 +2540,7 @@
       <c r="B93" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="32"/>
+      <c r="C93" s="34"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
@@ -2483,7 +2549,7 @@
       <c r="B94" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="32"/>
+      <c r="C94" s="34"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
@@ -2492,7 +2558,7 @@
       <c r="B95" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="32"/>
+      <c r="C95" s="34"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
@@ -2501,7 +2567,7 @@
       <c r="B96" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="32"/>
+      <c r="C96" s="34"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
@@ -2510,7 +2576,7 @@
       <c r="B97" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="32"/>
+      <c r="C97" s="34"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
@@ -2519,7 +2585,7 @@
       <c r="B98" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="32"/>
+      <c r="C98" s="34"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
@@ -2528,7 +2594,7 @@
       <c r="B99" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="32"/>
+      <c r="C99" s="34"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
@@ -2537,7 +2603,7 @@
       <c r="B100" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="32"/>
+      <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
@@ -2546,7 +2612,7 @@
       <c r="B101" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="32"/>
+      <c r="C101" s="34"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
@@ -2555,7 +2621,7 @@
       <c r="B102" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="32"/>
+      <c r="C102" s="34"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
@@ -2564,7 +2630,7 @@
       <c r="B103" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="32"/>
+      <c r="C103" s="34"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
@@ -2573,7 +2639,7 @@
       <c r="B104" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="32"/>
+      <c r="C104" s="34"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
@@ -2582,7 +2648,7 @@
       <c r="B105" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="32"/>
+      <c r="C105" s="34"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
@@ -2591,7 +2657,7 @@
       <c r="B106" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="32"/>
+      <c r="C106" s="34"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
@@ -2600,7 +2666,7 @@
       <c r="B107" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="32"/>
+      <c r="C107" s="34"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
@@ -2609,7 +2675,7 @@
       <c r="B108" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="32"/>
+      <c r="C108" s="34"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
@@ -2618,7 +2684,7 @@
       <c r="B109" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="32"/>
+      <c r="C109" s="34"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
@@ -2627,7 +2693,7 @@
       <c r="B110" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="32"/>
+      <c r="C110" s="34"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
@@ -2636,7 +2702,7 @@
       <c r="B111" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="32"/>
+      <c r="C111" s="34"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
@@ -2645,7 +2711,7 @@
       <c r="B112" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="32"/>
+      <c r="C112" s="34"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
@@ -2654,7 +2720,7 @@
       <c r="B113" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="32"/>
+      <c r="C113" s="34"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
@@ -2663,7 +2729,7 @@
       <c r="B114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="32"/>
+      <c r="C114" s="34"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
@@ -2672,7 +2738,7 @@
       <c r="B115" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="32"/>
+      <c r="C115" s="34"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
@@ -2681,7 +2747,7 @@
       <c r="B116" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="32"/>
+      <c r="C116" s="34"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
@@ -2690,7 +2756,7 @@
       <c r="B117" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="32"/>
+      <c r="C117" s="34"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
@@ -2699,7 +2765,7 @@
       <c r="B118" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="32"/>
+      <c r="C118" s="34"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
@@ -2708,7 +2774,7 @@
       <c r="B119" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="32"/>
+      <c r="C119" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -1769,24 +1769,24 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>187</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
+    <row r="2" spans="1:3" ht="15" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75" thickTop="1">
+    <row r="4" spans="1:3" ht="29.4" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="60">
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
       <c r="B12" s="30" t="s">
         <v>218</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="28.8">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="28.8">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="28.8">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="90">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
       <c r="B28" s="31" t="s">
         <v>126</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="45">
+    <row r="34" spans="1:3" ht="43.2">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="43.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="28.8">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="90">
+    <row r="39" spans="1:3" ht="86.4">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="45">
+    <row r="42" spans="1:3" ht="43.2">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="45">
+    <row r="48" spans="1:3" ht="43.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" ht="30">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30">
+    <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="25" t="s">
         <v>165</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30">
+    <row r="63" spans="1:3" ht="28.8">
       <c r="A63" s="25" t="s">
         <v>167</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="120">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
       <c r="B74" s="12" t="s">
         <v>223</v>
       </c>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="1:3" ht="30">
+    <row r="83" spans="1:3" ht="28.8">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C83" s="33"/>
     </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="75">
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
       <c r="B86" s="21" t="s">
         <v>222</v>
       </c>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>varNames</t>
   </si>
@@ -246,15 +246,9 @@
     <t>The total times of sleep within a bedtime. This is also the time of sleep inside sleep_intervals by definition of sleep-interval.</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto detected preliminary quality check (QC) flag. QC flag is auto detected using predefined outlier criteria. Additionally technical errors can also generate QC flag. </t>
-  </si>
-  <si>
     <t>Number of days present in the accelerometer data after automatically trimming Non-wear (NW) days in the beginning and end</t>
   </si>
   <si>
-    <t>Whether the  is a work-day or a leisure day. See definitions of number of work and leisure days above. Possible values "Work", "Leisure" or empty</t>
-  </si>
-  <si>
     <t>Number of breaks of sitting or lying postures. (i.e. this is the number of times a person rises from a sitting or a lying posture)</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>Time of stair-walking (all stair walking like activities are counted. i.e. terrain walking etc.)</t>
   </si>
   <si>
-    <t>Time of activities in "Other" postures/activities which has somewhat horizontal thigh position. Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
-  </si>
-  <si>
     <t>Number of steps during walking</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
   </si>
   <si>
     <t>Cadence related variables. Cadence is only detected for walking, running and stair-walking</t>
-  </si>
-  <si>
-    <t>Only available when work/leisure diary is given</t>
   </si>
   <si>
     <t>Important Note: These variables are calculated using the direct output of activity detection algorithm with an epoch of 1s. Any sporadic break, misclassification or ambiguity can affect these variables. These variables, except for the combined activity/posture "SitLie", should only be used with consultation of ActiPASS developers</t>
@@ -691,9 +679,6 @@
     <t>LieStill_1</t>
   </si>
   <si>
-    <t>The total time of possible sleep outside a bedtime (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.). In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
-  </si>
-  <si>
     <t>Time of lying. If LieStill is defined, time of 'Lie' also contains that time.</t>
   </si>
   <si>
@@ -704,124 +689,6 @@
   </si>
   <si>
     <r>
-      <t>The time of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NW outside any periods flagged as sleep-intervals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> not a part of Awake_1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>variable below</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The time of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NW inside any periods flagged as sleep-intervals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>not a part of SleepInterval_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> below</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The  time </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>within ValidDuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of this calendar day which is flagged as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> belonging to a sleep-interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
- A sleep interval is theoretically defined as the time between the first sleep onset and the last awakening. Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>The time</t>
     </r>
     <r>
@@ -850,12 +717,6 @@
       </rPr>
       <t>not flagged as belonging to a sleep-interval</t>
     </r>
-  </si>
-  <si>
-    <t>Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. Not available for ProPASS tables.</t>
-  </si>
-  <si>
-    <t>Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. Not available for ProPASS tables.</t>
   </si>
   <si>
     <t>Day_QC_1</t>
@@ -1134,6 +995,187 @@
 PA_INT3 = 3.0 (cutoff for variable  INT3)
 PA_INT4 = 6.0 (cutoff for variable INT4)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>The time of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NW outside any periods flagged as sleep-intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not a part of Awake_1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>variable below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The time of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NW inside any periods flagged as sleep-intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>not a part of SleepInterval_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> below</t>
+    </r>
+  </si>
+  <si>
+    <t>A sleep interval is theoretically defined as the time between the first sleep onset and the last awakening. Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The  time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>within ValidDuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of this calendar day which is flagged as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> belonging to a sleep-interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The total time of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>possible sleep outside a bedtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time of activities in "Other" postures/activities which has somewhat horizontal thigh position. </t>
+  </si>
+  <si>
+    <t>Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the  is a work-day or a leisure day. </t>
+  </si>
+  <si>
+    <t>See definitions of number of work and leisure days above. Possible values "Work", "Leisure" or empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto detected preliminary quality check (QC) flag. </t>
+  </si>
+  <si>
+    <t>QC flag is auto detected using predefined outlier criteria. Additionally technical errors can also generate QC flag. Possible values: "OK", "Check" or "NotOK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. </t>
+  </si>
+  <si>
+    <t>Not available for ProPASS tables. Only available when work/leisure diary is given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. </t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1435,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1463,9 +1505,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1481,6 +1520,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1768,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1781,7 +1824,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1795,7 +1838,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.4" thickTop="1">
@@ -1806,15 +1849,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>209</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1825,7 +1868,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
@@ -1833,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1850,22 +1893,22 @@
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>89</v>
+      <c r="B9" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>89</v>
+      <c r="B10" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1873,8 +1916,8 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
-      <c r="B12" s="30" t="s">
-        <v>218</v>
+      <c r="B12" s="29" t="s">
+        <v>208</v>
       </c>
       <c r="C12" s="18"/>
     </row>
@@ -1905,14 +1948,16 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="4"/>
+      <c r="B16" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -1934,88 +1979,88 @@
     </row>
     <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8">
       <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8">
       <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2023,8 +2068,8 @@
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
-      <c r="B28" s="31" t="s">
-        <v>126</v>
+      <c r="B28" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="C28" s="15"/>
     </row>
@@ -2034,7 +2079,7 @@
     </row>
     <row r="30" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
       <c r="B30" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" s="6"/>
     </row>
@@ -2061,40 +2106,44 @@
         <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="43.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="43.2">
+        <v>215</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
       <c r="B37" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C37" s="6"/>
     </row>
@@ -2103,25 +2152,27 @@
         <v>17</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="86.4">
+    <row r="39" spans="1:3" ht="28.8">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -2129,22 +2180,25 @@
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="43.2">
+    <row r="42" spans="1:3" ht="28.8">
       <c r="A42" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
       <c r="B43" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C43" s="6"/>
     </row>
@@ -2153,7 +2207,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -2189,7 +2243,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4"/>
     </row>
@@ -2241,7 +2295,7 @@
         <v>42</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" s="4"/>
     </row>
@@ -2256,107 +2310,109 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" ht="45.75" customHeight="1">
+    <row r="57" spans="1:3" ht="19.8" customHeight="1">
       <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="4"/>
+      <c r="B57" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1">
       <c r="C58" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1">
       <c r="B59" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
       <c r="A60" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8">
       <c r="A63" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1">
       <c r="A66" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1">
@@ -2366,7 +2422,7 @@
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
       <c r="B68" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2382,7 +2438,7 @@
         <v>24</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2395,15 +2451,15 @@
     </row>
     <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
       <c r="B74" s="12" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="32" t="s">
-        <v>91</v>
+      <c r="C75" s="31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2413,7 +2469,7 @@
       <c r="B76" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="33"/>
+      <c r="C76" s="32"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
@@ -2422,7 +2478,7 @@
       <c r="B77" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="33"/>
+      <c r="C77" s="32"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
@@ -2431,7 +2487,7 @@
       <c r="B78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="33"/>
+      <c r="C78" s="32"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
@@ -2440,7 +2496,7 @@
       <c r="B79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="33"/>
+      <c r="C79" s="32"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -2449,7 +2505,7 @@
       <c r="B80" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="33"/>
+      <c r="C80" s="32"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
@@ -2458,7 +2514,7 @@
       <c r="B81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="32"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
@@ -2467,314 +2523,314 @@
       <c r="B82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="33"/>
+      <c r="C82" s="32"/>
     </row>
     <row r="83" spans="1:3" ht="28.8">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="32"/>
     </row>
     <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
       <c r="B86" s="21" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="C89" s="33"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="C90" s="33"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" s="34"/>
+        <v>92</v>
+      </c>
+      <c r="C91" s="33"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="34"/>
+        <v>93</v>
+      </c>
+      <c r="C92" s="33"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="34"/>
+        <v>94</v>
+      </c>
+      <c r="C93" s="33"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="C94" s="33"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="C95" s="33"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="C96" s="33"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" s="34"/>
+        <v>98</v>
+      </c>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="C98" s="33"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="34"/>
+        <v>100</v>
+      </c>
+      <c r="C99" s="33"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="C100" s="33"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="C101" s="33"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="C102" s="33"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="C103" s="33"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="C104" s="33"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="C105" s="33"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="C106" s="33"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="C107" s="33"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="C109" s="33"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="C110" s="33"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C111" s="34"/>
+        <v>112</v>
+      </c>
+      <c r="C111" s="33"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="34"/>
+        <v>120</v>
+      </c>
+      <c r="C112" s="33"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="C113" s="33"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="C114" s="33"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="C115" s="33"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="34"/>
+        <v>116</v>
+      </c>
+      <c r="C116" s="33"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C117" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="C117" s="33"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="C118" s="33"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="34"/>
+        <v>119</v>
+      </c>
+      <c r="C119" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,144 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
+      <t>The time of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NW inside any periods flagged as sleep-intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>not a part of SleepInterval_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> below</t>
+    </r>
+  </si>
+  <si>
+    <t>A sleep interval is theoretically defined as the time between the first sleep onset and the last awakening. Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The  time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>within ValidDuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of this calendar day which is flagged as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> belonging to a sleep-interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The total time of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>possible sleep outside a bedtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time of activities in "Other" postures/activities which has somewhat horizontal thigh position. </t>
+  </si>
+  <si>
+    <t>Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the  is a work-day or a leisure day. </t>
+  </si>
+  <si>
+    <t>See definitions of number of work and leisure days above. Possible values "Work", "Leisure" or empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto detected preliminary quality check (QC) flag. </t>
+  </si>
+  <si>
+    <t>QC flag is auto detected using predefined outlier criteria. Additionally technical errors can also generate QC flag. Possible values: "OK", "Check" or "NotOK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. </t>
+  </si>
+  <si>
+    <t>Not available for ProPASS tables. Only available when work/leisure diary is given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. </t>
+  </si>
+  <si>
+    <r>
+      <t>There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
     </r>
     <r>
       <rPr>
@@ -1039,143 +1176,6 @@
       </rPr>
       <t>variable below</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>The time of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NW inside any periods flagged as sleep-intervals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>not a part of SleepInterval_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> below</t>
-    </r>
-  </si>
-  <si>
-    <t>A sleep interval is theoretically defined as the time between the first sleep onset and the last awakening. Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The  time </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>within ValidDuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of this calendar day which is flagged as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> belonging to a sleep-interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The total time of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>possible sleep outside a bedtime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time of activities in "Other" postures/activities which has somewhat horizontal thigh position. </t>
-  </si>
-  <si>
-    <t>Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether the  is a work-day or a leisure day. </t>
-  </si>
-  <si>
-    <t>See definitions of number of work and leisure days above. Possible values "Work", "Leisure" or empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto detected preliminary quality check (QC) flag. </t>
-  </si>
-  <si>
-    <t>QC flag is auto detected using predefined outlier criteria. Additionally technical errors can also generate QC flag. Possible values: "OK", "Check" or "NotOK"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of work days detected. A work day is a day where some time of the day is flagged as "Work" by  diary. </t>
-  </si>
-  <si>
-    <t>Not available for ProPASS tables. Only available when work/leisure diary is given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. </t>
   </si>
 </sst>
 </file>
@@ -1511,6 +1511,10 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1520,10 +1524,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1811,25 +1811,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1"/>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.4" thickTop="1">
+    <row r="4" spans="1:3" ht="30.75" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1854,10 +1854,10 @@
         <v>209</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1889,33 +1889,33 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
+    </row>
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>230</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="60">
       <c r="B12" s="29" t="s">
         <v>208</v>
       </c>
@@ -1953,10 +1953,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="28.8">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B28" s="30" t="s">
         <v>122</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>215</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2126,10 +2126,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="28.8">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2156,15 +2156,15 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="28.8">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" ht="28.8">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2185,15 +2185,15 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="28.8">
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" t="s">
         <v>179</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2">
+    <row r="48" spans="1:3" ht="45">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="30">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2317,15 +2317,15 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" ht="19.8" customHeight="1">
+    <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1">
@@ -2360,7 +2360,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8">
+    <row r="62" spans="1:3" ht="30">
       <c r="A62" s="25" t="s">
         <v>161</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8">
+    <row r="63" spans="1:3" ht="30">
       <c r="A63" s="25" t="s">
         <v>163</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="120">
       <c r="B74" s="12" t="s">
         <v>213</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="33" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="B76" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="34"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
@@ -2478,7 +2478,7 @@
       <c r="B77" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="34"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
@@ -2487,7 +2487,7 @@
       <c r="B78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="34"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
@@ -2496,7 +2496,7 @@
       <c r="B79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="34"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -2505,7 +2505,7 @@
       <c r="B80" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="32"/>
+      <c r="C80" s="34"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
@@ -2514,7 +2514,7 @@
       <c r="B81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="32"/>
+      <c r="C81" s="34"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
@@ -2523,18 +2523,18 @@
       <c r="B82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="32"/>
-    </row>
-    <row r="83" spans="1:3" ht="28.8">
+      <c r="C82" s="34"/>
+    </row>
+    <row r="83" spans="1:3" ht="30">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="32"/>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
+      <c r="C83" s="34"/>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="75">
       <c r="B86" s="21" t="s">
         <v>212</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="B88" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       <c r="B89" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="33"/>
+      <c r="C89" s="35"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
@@ -2569,7 +2569,7 @@
       <c r="B90" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="33"/>
+      <c r="C90" s="35"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
@@ -2578,7 +2578,7 @@
       <c r="B91" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="35"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
@@ -2587,7 +2587,7 @@
       <c r="B92" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="35"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
@@ -2596,7 +2596,7 @@
       <c r="B93" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="33"/>
+      <c r="C93" s="35"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
@@ -2605,7 +2605,7 @@
       <c r="B94" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="35"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
@@ -2614,7 +2614,7 @@
       <c r="B95" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="33"/>
+      <c r="C95" s="35"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
@@ -2623,7 +2623,7 @@
       <c r="B96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="33"/>
+      <c r="C96" s="35"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
@@ -2632,7 +2632,7 @@
       <c r="B97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="33"/>
+      <c r="C97" s="35"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
@@ -2641,7 +2641,7 @@
       <c r="B98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="33"/>
+      <c r="C98" s="35"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
@@ -2650,7 +2650,7 @@
       <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="33"/>
+      <c r="C99" s="35"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
@@ -2659,7 +2659,7 @@
       <c r="B100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="33"/>
+      <c r="C100" s="35"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
@@ -2668,7 +2668,7 @@
       <c r="B101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="33"/>
+      <c r="C101" s="35"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
@@ -2677,7 +2677,7 @@
       <c r="B102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="33"/>
+      <c r="C102" s="35"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
@@ -2686,7 +2686,7 @@
       <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="33"/>
+      <c r="C103" s="35"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
@@ -2695,7 +2695,7 @@
       <c r="B104" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="33"/>
+      <c r="C104" s="35"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
@@ -2704,7 +2704,7 @@
       <c r="B105" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="33"/>
+      <c r="C105" s="35"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
@@ -2713,7 +2713,7 @@
       <c r="B106" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="33"/>
+      <c r="C106" s="35"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
@@ -2722,7 +2722,7 @@
       <c r="B107" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="33"/>
+      <c r="C107" s="35"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
@@ -2731,7 +2731,7 @@
       <c r="B108" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="33"/>
+      <c r="C108" s="35"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
@@ -2740,7 +2740,7 @@
       <c r="B109" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="33"/>
+      <c r="C109" s="35"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
@@ -2749,7 +2749,7 @@
       <c r="B110" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="33"/>
+      <c r="C110" s="35"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
@@ -2758,7 +2758,7 @@
       <c r="B111" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="33"/>
+      <c r="C111" s="35"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
@@ -2767,7 +2767,7 @@
       <c r="B112" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="33"/>
+      <c r="C112" s="35"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
@@ -2776,7 +2776,7 @@
       <c r="B113" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="33"/>
+      <c r="C113" s="35"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
@@ -2785,7 +2785,7 @@
       <c r="B114" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="33"/>
+      <c r="C114" s="35"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
@@ -2794,7 +2794,7 @@
       <c r="B115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="33"/>
+      <c r="C115" s="35"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
@@ -2803,7 +2803,7 @@
       <c r="B116" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="33"/>
+      <c r="C116" s="35"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
@@ -2812,7 +2812,7 @@
       <c r="B117" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="33"/>
+      <c r="C117" s="35"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
@@ -2821,7 +2821,7 @@
       <c r="B118" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="33"/>
+      <c r="C118" s="35"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
@@ -2830,7 +2830,7 @@
       <c r="B119" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="33"/>
+      <c r="C119" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -1812,24 +1812,25 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1"/>
+    <row r="2" spans="1:3" ht="15" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1841,7 +1842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75" thickTop="1">
+    <row r="4" spans="1:3" ht="29.4" thickTop="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1889,7 +1890,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1916,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="60">
+    <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
       <c r="B12" s="29" t="s">
         <v>208</v>
       </c>
@@ -1977,7 +1978,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="28.8">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="28.8">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -2067,7 +2068,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="90">
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
       <c r="B28" s="30" t="s">
         <v>122</v>
       </c>
@@ -2147,7 +2148,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="28.8">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2157,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="28.8">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2176,7 +2177,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2185,7 +2186,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" ht="30">
+    <row r="42" spans="1:3" ht="28.8">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -2220,7 +2221,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -2238,7 +2239,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="45">
+    <row r="48" spans="1:3" ht="43.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2291,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" ht="30">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30">
+    <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="25" t="s">
         <v>161</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30">
+    <row r="63" spans="1:3" ht="28.8">
       <c r="A63" s="25" t="s">
         <v>163</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="120">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
       <c r="B74" s="12" t="s">
         <v>213</v>
       </c>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="C82" s="34"/>
     </row>
-    <row r="83" spans="1:3" ht="30">
+    <row r="83" spans="1:3" ht="28.8">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -2534,7 +2535,7 @@
       </c>
       <c r="C83" s="34"/>
     </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="75">
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
       <c r="B86" s="21" t="s">
         <v>212</v>
       </c>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8C3AD-F954-482D-A60A-6539652EF202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -42,120 +43,6 @@
     <t>NumLeisureDays</t>
   </si>
   <si>
-    <t>Date_1</t>
-  </si>
-  <si>
-    <t>Day_1</t>
-  </si>
-  <si>
-    <t>Weekend_1</t>
-  </si>
-  <si>
-    <t>DayType_1</t>
-  </si>
-  <si>
-    <t>DayStart_1</t>
-  </si>
-  <si>
-    <t>DayStop_1</t>
-  </si>
-  <si>
-    <t>Excluded_1</t>
-  </si>
-  <si>
-    <t>Duration_1</t>
-  </si>
-  <si>
-    <t>NonWear_1</t>
-  </si>
-  <si>
-    <t>ValidDuration_1</t>
-  </si>
-  <si>
-    <t>Awake_1</t>
-  </si>
-  <si>
-    <t>SleepInterval_1</t>
-  </si>
-  <si>
-    <t>Sleep_1</t>
-  </si>
-  <si>
-    <t>SleepInBed_1</t>
-  </si>
-  <si>
-    <t>Walk_Slow_1</t>
-  </si>
-  <si>
-    <t>Walk_Fast_1</t>
-  </si>
-  <si>
-    <t>NumSteps_1</t>
-  </si>
-  <si>
-    <t>NumStepsWalk_1</t>
-  </si>
-  <si>
-    <t>NumStepsRun_1</t>
-  </si>
-  <si>
-    <t>Lie_1</t>
-  </si>
-  <si>
-    <t>Sit_1</t>
-  </si>
-  <si>
-    <t>SitLie_1</t>
-  </si>
-  <si>
-    <t>SitLie_P50_1</t>
-  </si>
-  <si>
-    <t>SitLie_T50_1</t>
-  </si>
-  <si>
-    <t>SitLie_P10_1</t>
-  </si>
-  <si>
-    <t>SitLie_P90_1</t>
-  </si>
-  <si>
-    <t>SitLie_T30min_1</t>
-  </si>
-  <si>
-    <t>SitLie_N30min_1</t>
-  </si>
-  <si>
-    <t>SitLie_Tmax_1</t>
-  </si>
-  <si>
-    <t>SitLie_NBreaks_1</t>
-  </si>
-  <si>
-    <t>Stand_1</t>
-  </si>
-  <si>
-    <t>Move_1</t>
-  </si>
-  <si>
-    <t>StandMove_1</t>
-  </si>
-  <si>
-    <t>Walk_1</t>
-  </si>
-  <si>
-    <t>Run_1</t>
-  </si>
-  <si>
-    <t>Stair_1</t>
-  </si>
-  <si>
-    <t>Cycle_1</t>
-  </si>
-  <si>
-    <t>Other_1</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -262,12 +149,6 @@
   </si>
   <si>
     <t>The valid time which can be used for analysis for this day</t>
-  </si>
-  <si>
-    <t>AwakeNW_1</t>
-  </si>
-  <si>
-    <t>SlpIntNW_1</t>
   </si>
   <si>
     <t>Time of auto or manually defined non-wear (NW) during the day</t>
@@ -517,129 +398,9 @@
     </r>
   </si>
   <si>
-    <t>SitLie_1min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_bouts_TH_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_1min_freq_H_1</t>
-  </si>
-  <si>
-    <t>SitLie_1min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_bouts_TL_1</t>
-  </si>
-  <si>
-    <t>SitLie_1min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_2min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_3min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_4min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_5min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_10min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_30min_freq_L_1</t>
-  </si>
-  <si>
-    <t>SitLie_60min_freq_L_1</t>
-  </si>
-  <si>
     <t> Intensity class name</t>
   </si>
   <si>
-    <t>INT1_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as sedentary on day 1</t>
-  </si>
-  <si>
-    <t>INT2_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as low physical activity on day 1</t>
-  </si>
-  <si>
-    <t>INT2_Amb_1</t>
-  </si>
-  <si>
-    <t>Time spent on ambulatory activities classified as low physical activity  (standing excluded) on day 1</t>
-  </si>
-  <si>
-    <t>INT3_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as moderate physical activity on day 1</t>
-  </si>
-  <si>
     <t>"Sit" and "Lie"</t>
   </si>
   <si>
@@ -649,18 +410,6 @@
     <t>"Move", "Walk_Slow" (walking with a cadence lower than 100/min), "Other" with no periodic movements, and "Other" with periodic movements with a cadence lower than 100/min)</t>
   </si>
   <si>
-    <t>INT4_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as vigorous  physical activity on day 1</t>
-  </si>
-  <si>
-    <t>INT34_1</t>
-  </si>
-  <si>
-    <t>Time spent on activities classified as moderate and vigorous  physical activity on day 1</t>
-  </si>
-  <si>
     <t>"INT3" and "INT4"</t>
   </si>
   <si>
@@ -676,9 +425,6 @@
     <t>"Run", "Cycle", "Stair", "Walk" with a cadence higher than 135/min , "Other" with periodic movement with a cadence higher than or equal to 135/min</t>
   </si>
   <si>
-    <t>LieStill_1</t>
-  </si>
-  <si>
     <t>Time of lying. If LieStill is defined, time of 'Lie' also contains that time.</t>
   </si>
   <si>
@@ -719,30 +465,6 @@
     </r>
   </si>
   <si>
-    <t>Day_QC_1</t>
-  </si>
-  <si>
-    <t>NotEnoughWear_1</t>
-  </si>
-  <si>
-    <t>NoWlk_1</t>
-  </si>
-  <si>
-    <t>TooMuchOther_1</t>
-  </si>
-  <si>
-    <t>TooMuchStair_1</t>
-  </si>
-  <si>
-    <t>NoSleepInt_1</t>
-  </si>
-  <si>
-    <t>NumPrimaryBDs_1</t>
-  </si>
-  <si>
-    <t>NumExtraBDs_1</t>
-  </si>
-  <si>
     <t>The auto detected quality check flag for the day. ProPASS wide-format table contains days only days where this flag is "OK"</t>
   </si>
   <si>
@@ -785,13 +507,7 @@
     <t>Slepp algorithm is not used for extra bedtimes</t>
   </si>
   <si>
-    <t>Upright_1</t>
-  </si>
-  <si>
     <t>Time of all upright activities/postures (i.e. Stand + Move + Walk + Run + Stair)</t>
-  </si>
-  <si>
-    <t>Following variables are derived daily. The suffix (in this case "_1") indicate the day number. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see below) are listed in the table.</t>
   </si>
   <si>
     <t>QC_Status</t>
@@ -1177,11 +893,298 @@
       <t>variable below</t>
     </r>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>DayType</t>
+  </si>
+  <si>
+    <t>DayStart</t>
+  </si>
+  <si>
+    <t>DayStop</t>
+  </si>
+  <si>
+    <t>Day_QC</t>
+  </si>
+  <si>
+    <t>NotEnoughWear</t>
+  </si>
+  <si>
+    <t>NoWlk</t>
+  </si>
+  <si>
+    <t>TooMuchOther</t>
+  </si>
+  <si>
+    <t>TooMuchStair</t>
+  </si>
+  <si>
+    <t>NoSleepInt</t>
+  </si>
+  <si>
+    <t>NumPrimaryBDs</t>
+  </si>
+  <si>
+    <t>NumExtraBDs</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>NonWear</t>
+  </si>
+  <si>
+    <t>AwakeNW</t>
+  </si>
+  <si>
+    <t>SlpIntNW</t>
+  </si>
+  <si>
+    <t>ValidDuration</t>
+  </si>
+  <si>
+    <t>Awake</t>
+  </si>
+  <si>
+    <t>SleepInterval</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>SleepInBed</t>
+  </si>
+  <si>
+    <t>LieStill</t>
+  </si>
+  <si>
+    <t>Lie</t>
+  </si>
+  <si>
+    <t>Sit</t>
+  </si>
+  <si>
+    <t>SitLie</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>StandMove</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Walk_Slow</t>
+  </si>
+  <si>
+    <t>Walk_Fast</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Stair</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Upright</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>INT2_Amb</t>
+  </si>
+  <si>
+    <t>INT3</t>
+  </si>
+  <si>
+    <t>INT34</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>NumStepsRun</t>
+  </si>
+  <si>
+    <t>NumStepsWalk</t>
+  </si>
+  <si>
+    <t>NumSteps</t>
+  </si>
+  <si>
+    <t>SitLie_P50</t>
+  </si>
+  <si>
+    <t>SitLie_T50</t>
+  </si>
+  <si>
+    <t>SitLie_P10</t>
+  </si>
+  <si>
+    <t>SitLie_P90</t>
+  </si>
+  <si>
+    <t>SitLie_T30min</t>
+  </si>
+  <si>
+    <t>SitLie_N30min</t>
+  </si>
+  <si>
+    <t>SitLie_Tmax</t>
+  </si>
+  <si>
+    <t>SitLie_Nbreaks</t>
+  </si>
+  <si>
+    <t>SitLie_1min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_2min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_3min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_60min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_30min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_10min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_5min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_4min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_3min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_2min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_1min_freq_L</t>
+  </si>
+  <si>
+    <t>SitLie_4min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_5min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_10min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_30min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_60min_bouts_TH</t>
+  </si>
+  <si>
+    <t>SitLie_1min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_2min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_3min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_4min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_5min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_10min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_30min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_60min_freq_H</t>
+  </si>
+  <si>
+    <t>SitLie_1min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_2min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_3min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_4min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_5min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_10min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_30min_bouts_TL</t>
+  </si>
+  <si>
+    <t>SitLie_60min_bouts_TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time spent on activities classified as sedentary </t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as low physical activity</t>
+  </si>
+  <si>
+    <t>Time spent on ambulatory activities classified as low physical activity  (standing excluded)</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as moderate physical activity</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as vigorous  physical activity</t>
+  </si>
+  <si>
+    <t>Time spent on activities classified as moderate and vigorous  physical activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Following variables are derived daily. In the ProPASS wide-format table each variable is suffixed with day number. For example the suffix  "_1" in "Date_1" indicates the day number 1. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see below) are listed in the table.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1808,12 +1811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1825,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1836,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.4" thickTop="1">
@@ -1847,18 +1850,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1866,10 +1869,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
@@ -1877,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1886,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -1895,10 +1898,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
@@ -1906,937 +1909,933 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="57.6">
-      <c r="B12" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="18"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="17" customFormat="1" ht="81" customHeight="1">
+      <c r="B11" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>225</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="28.8">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
-      <c r="B28" s="30" t="s">
-        <v>122</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" s="14" customFormat="1" ht="86.4">
+      <c r="B27" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:3" s="14" customFormat="1">
+      <c r="B28" s="16"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" s="14" customFormat="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B30" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="6"/>
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
+      <c r="B29" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B37" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
+      <c r="B36" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="28.8">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="28.8">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="28.8">
+        <v>124</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="28.8">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="28.8">
-      <c r="A42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B43" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
+      <c r="B42" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>180</v>
+        <v>163</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="43.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>174</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="33" customHeight="1">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>223</v>
+        <v>127</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1">
+      <c r="C57" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="C58" s="20" t="s">
+      <c r="B58" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A59" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="25" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="B59" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A60" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B60" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8">
       <c r="A61" s="25" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="25" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="28.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="25" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="25" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1">
       <c r="A65" s="25" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>174</v>
-      </c>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-    </row>
-    <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="B68" s="19" t="s">
-        <v>85</v>
+      <c r="B67" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
-      <c r="B74" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1" ht="100.8">
+      <c r="B73" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="33" t="s">
-        <v>87</v>
-      </c>
+      <c r="A75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="34"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="C76" s="34"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="C77" s="34"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="C78" s="34"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>69</v>
+        <v>189</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C79" s="34"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C80" s="34"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>70</v>
+        <v>191</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C81" s="34"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="28.8">
       <c r="A82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>71</v>
+        <v>192</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C82" s="34"/>
     </row>
-    <row r="83" spans="1:3" ht="28.8">
-      <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="34"/>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
-      <c r="B86" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>88</v>
+    <row r="85" spans="1:3" s="5" customFormat="1" ht="72">
+      <c r="B85" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>121</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C88" s="35"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C89" s="35"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C90" s="35"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C91" s="35"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C92" s="35"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C93" s="35"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C94" s="35"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>96</v>
+        <v>209</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C95" s="35"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C96" s="35"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C97" s="35"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C98" s="35"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C99" s="35"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C100" s="35"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C101" s="35"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C102" s="35"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>104</v>
+        <v>217</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C103" s="35"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C104" s="35"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C105" s="35"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C106" s="35"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C107" s="35"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C108" s="35"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C109" s="35"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C110" s="35"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>112</v>
+        <v>203</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C111" s="35"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C112" s="35"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C113" s="35"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C114" s="35"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C115" s="35"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C116" s="35"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C117" s="35"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C118" s="35"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="C88:C119"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="C87:C118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8C3AD-F954-482D-A60A-6539652EF202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AB0AB-830B-496B-B6E8-DEEFDED01F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="233">
   <si>
     <t>varNames</t>
   </si>
@@ -1176,16 +1176,102 @@
     <t>Time spent on activities classified as moderate and vigorous  physical activity</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Following variables are derived daily. In the ProPASS wide-format table each variable is suffixed with day number. For example the suffix  "_1" in "Date_1" indicates the day number 1. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. Only days determined to be valid (see below) are listed in the table.
-</t>
+    <t xml:space="preserve">Following variables are derived daily. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These variablesare saved to two different tables named "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ActiPASS_Daily_LongFormat_MasterFile.csv" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+ In "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProPASS_WideFormat_MasterFile.csv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Only days determined to be valid (see below) are listed in the table.
+    Each variable is suffixed with day number. For example the suffix  "_1" in "Date_1" indicates the day number 1. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1298,6 +1384,28 @@
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1438,7 +1546,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1479,9 +1587,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1518,6 +1623,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1812,26 +1927,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="20.399999999999999" thickBot="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="A1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
@@ -1897,10 +2012,10 @@
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1908,934 +2023,940 @@
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="81" customHeight="1">
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:3" s="17" customFormat="1" ht="71.400000000000006" customHeight="1">
+      <c r="B11" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="C11" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>130</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.8">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8">
+      <c r="A20" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" ht="28.8">
+      <c r="A22" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" s="14" customFormat="1" ht="86.4">
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
+      <c r="B28" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:3" s="14" customFormat="1">
-      <c r="B28" s="16"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:3" s="14" customFormat="1">
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
+      <c r="B30" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
+      <c r="B37" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="28.8">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="28.8">
       <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="28.8">
+      <c r="A39" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" ht="28.8">
-      <c r="A40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="28.8">
+      <c r="A42" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B42" s="21" t="s">
+    <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
+      <c r="B43" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>162</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="43.2">
-      <c r="A47" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="43.2">
+      <c r="A48" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="33" customHeight="1">
-      <c r="A56" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="33" customHeight="1">
+      <c r="A57" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1">
-      <c r="C57" s="20" t="s">
+    <row r="58" spans="1:3" s="5" customFormat="1">
+      <c r="C58" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="B58" s="20" t="s">
+    <row r="59" spans="1:3" s="5" customFormat="1">
+      <c r="B59" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A59" s="23" t="s">
+    <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A60" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="25" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B61" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C61" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8">
-      <c r="A61" s="25" t="s">
+    <row r="62" spans="1:3" ht="28.8">
+      <c r="A62" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B62" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C62" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="25" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B63" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C63" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="25" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B64" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C64" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="25" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B65" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C65" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1">
-      <c r="A65" s="25" t="s">
+    <row r="66" spans="1:3" s="5" customFormat="1">
+      <c r="A66" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C66" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-    </row>
     <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="B67" s="19" t="s">
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1">
+      <c r="B68" s="18" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" ht="100.8">
-      <c r="B73" s="12" t="s">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
+      <c r="B74" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="C74" s="33" t="s">
+    <row r="75" spans="1:3">
+      <c r="C75" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>185</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="34"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="C76" s="37"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="C77" s="37"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="C78" s="37"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>189</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="34"/>
+        <v>188</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="37"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="C80" s="37"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="37"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="34"/>
-    </row>
-    <row r="82" spans="1:3" ht="28.8">
-      <c r="A82" t="s">
+      <c r="C82" s="37"/>
+    </row>
+    <row r="83" spans="1:3" ht="28.8">
+      <c r="A83" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="34"/>
-    </row>
-    <row r="85" spans="1:3" s="5" customFormat="1" ht="72">
-      <c r="B85" s="21" t="s">
+      <c r="C83" s="37"/>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
+      <c r="B86" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="C90" s="38"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="C91" s="38"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="C92" s="38"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C93" s="38"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="35"/>
+        <v>55</v>
+      </c>
+      <c r="C94" s="38"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" s="35"/>
+        <v>208</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="38"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="35"/>
+        <v>57</v>
+      </c>
+      <c r="C96" s="38"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="35"/>
+        <v>58</v>
+      </c>
+      <c r="C97" s="38"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="35"/>
+        <v>59</v>
+      </c>
+      <c r="C98" s="38"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="35"/>
+        <v>60</v>
+      </c>
+      <c r="C99" s="38"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="C100" s="38"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C101" s="38"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="35"/>
+        <v>63</v>
+      </c>
+      <c r="C102" s="38"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="38"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="35"/>
+        <v>65</v>
+      </c>
+      <c r="C104" s="38"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="C105" s="38"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="C106" s="38"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C107" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="C107" s="38"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C108" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="C108" s="38"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C109" s="35"/>
+        <v>70</v>
+      </c>
+      <c r="C109" s="38"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="C110" s="38"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>203</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C111" s="35"/>
+        <v>224</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="38"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112" s="35"/>
+        <v>80</v>
+      </c>
+      <c r="C112" s="38"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C113" s="38"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C114" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C114" s="38"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C115" s="38"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C116" s="38"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C117" s="38"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="38"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>196</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C118" s="35"/>
+      <c r="C119" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="C87:C118"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C88:C119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AB0AB-830B-496B-B6E8-DEEFDED01F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A8612-A3FC-4652-83DA-EE0895A71DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="235">
   <si>
     <t>varNames</t>
   </si>
@@ -269,9 +269,6 @@
     <t>replace "SitLie" with the relevant activity/posture/intensity-class to derive corresponding variable name (also see notice above)</t>
   </si>
   <si>
-    <t>A day can be further sub-divided into domains such as 'Work' and 'Leisure' and following variables can be generated for each such sub-domain within a calendar day.  Such variables will be prefixed with the domain (Ex. Work_Duration_1) This additional domain specific data is available only when the additional diary containing such data is included in ActiPASS processing, and also the relevant domain names are specified under "Stat Domains" options before stats generation.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -514,9 +511,6 @@
   </si>
   <si>
     <t>possible values: "OK", "Check" or "NotOK"</t>
-  </si>
-  <si>
-    <t>Ex. 2022-03-28 15.12.34</t>
   </si>
   <si>
     <r>
@@ -1266,12 +1260,24 @@
     Each variable is suffixed with day number. For example the suffix  "_1" in "Date_1" indicates the day number 1. </t>
     </r>
   </si>
+  <si>
+    <t>A day can be further sub-divided into domains such as 'Work' and 'Leisure' and following variables can be generated for each such sub-domain within a calendar day.  Such variables will be prefixed with the domain (Ex. Work_Duration) This additional domain specific data is available only when the additional diary containing such data is included in ActiPASS processing, and also the relevant domain names are specified under "Stat Domains" options before stats generation.</t>
+  </si>
+  <si>
+    <t>example "2022-03-28 15.12.34"</t>
+  </si>
+  <si>
+    <t>Follow this link for more information regarding ActiPASS output tables (files)</t>
+  </si>
+  <si>
+    <t>Follow this link for more information regarding how these variables are saved to ActiPASS output tables (CSV files)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1407,6 +1413,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1538,15 +1558,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1642,12 +1663,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
     <cellStyle name="Heading 1" xfId="5" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1927,639 +1950,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A3" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickTop="1"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.4" thickTop="1">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" ht="30.75" thickTop="1">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="28.8">
-      <c r="A9" s="11" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="30">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
+      <c r="A12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="28.8">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="71.400000000000006" customHeight="1">
-      <c r="B11" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C12" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
+      <c r="B13" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>130</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="28.8">
-      <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8">
-      <c r="A20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" s="14" customFormat="1" ht="86.4">
-      <c r="B28" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" s="14" customFormat="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B30" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="4"/>
+    <row r="29" spans="1:3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
+      <c r="B30" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" s="14" customFormat="1">
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
+      <c r="B32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
+      <c r="B39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B37" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="28.8">
-      <c r="A38" t="s">
+      <c r="B41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="28.8">
-      <c r="A39" t="s">
+      <c r="B42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="28.8">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="28.8">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B43" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="4"/>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
+      <c r="B45" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="43.2">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="45">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>172</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="30">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="33" customHeight="1">
+      <c r="A59" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="33" customHeight="1">
-      <c r="A57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="C58" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1">
+      <c r="C60" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A60" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="23" t="s">
+    <row r="61" spans="1:3" s="5" customFormat="1">
+      <c r="B61" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A62" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8">
-      <c r="A62" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>88</v>
+      <c r="C62" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30">
+      <c r="A64" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30">
+      <c r="A65" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1">
+      <c r="A68" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" s="25" t="s">
+      <c r="B68" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-    </row>
-    <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="B68" s="18" t="s">
+    <row r="69" spans="1:3" s="5" customFormat="1">
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1">
+      <c r="B70" s="18" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2567,335 +2585,333 @@
         <v>182</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="100.8">
-      <c r="B74" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="13" t="s">
+    <row r="76" spans="1:3" s="5" customFormat="1" ht="120">
+      <c r="B76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="C75" s="36" t="s">
+    <row r="77" spans="1:3">
+      <c r="C77" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="37"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>186</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="37"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C78" s="37"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" s="37"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>35</v>
+        <v>185</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C80" s="37"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>32</v>
+        <v>186</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C81" s="37"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="37"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="37"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="37"/>
-    </row>
-    <row r="83" spans="1:3" ht="28.8">
-      <c r="A83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="C84" s="37"/>
+    </row>
+    <row r="85" spans="1:3" ht="30">
+      <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="37"/>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="72">
-      <c r="B86" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="21" t="s">
+      <c r="C85" s="37"/>
+    </row>
+    <row r="88" spans="1:3" s="5" customFormat="1" ht="75">
+      <c r="B88" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>193</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C91" s="38"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" s="38"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="38"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C94" s="38"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C95" s="38"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>57</v>
+        <v>205</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C96" s="38"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>210</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>58</v>
+        <v>206</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C97" s="38"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C98" s="38"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C99" s="38"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C100" s="38"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C101" s="38"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C102" s="38"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C103" s="38"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>65</v>
+        <v>213</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C104" s="38"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>66</v>
+        <v>214</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C105" s="38"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C106" s="38"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C107" s="38"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C108" s="38"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C109" s="38"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C110" s="38"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C111" s="38"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>203</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>80</v>
+        <v>221</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C112" s="38"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>73</v>
+        <v>222</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C113" s="38"/>
     </row>
@@ -2904,7 +2920,7 @@
         <v>201</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C114" s="38"/>
     </row>
@@ -2913,7 +2929,7 @@
         <v>200</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C115" s="38"/>
     </row>
@@ -2922,7 +2938,7 @@
         <v>199</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C116" s="38"/>
     </row>
@@ -2931,7 +2947,7 @@
         <v>198</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C117" s="38"/>
     </row>
@@ -2940,7 +2956,7 @@
         <v>197</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C118" s="38"/>
     </row>
@@ -2949,16 +2965,37 @@
         <v>196</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="38"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="38"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C119" s="38"/>
+      <c r="C121" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="C88:C119"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="C90:C121"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="actipass-variables" display="Please see ActiPASS output tables for more information where these variables are saved to." xr:uid="{F098AAF9-61B6-4AA4-94F5-D956F92B5131}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A8612-A3FC-4652-83DA-EE0895A71DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C757F-82A9-4FC1-AFE0-5C91EE3F12D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
   <si>
     <t>varNames</t>
   </si>
@@ -462,18 +462,12 @@
     </r>
   </si>
   <si>
-    <t>The auto detected quality check flag for the day. ProPASS wide-format table contains days only days where this flag is "OK"</t>
-  </si>
-  <si>
     <t>A flag indicating if the day has less than 30s of walking</t>
   </si>
   <si>
     <t>When a day has not enough walking, it affects the individual calibration (refrence-positions) and it can then lead to less accurate classifications</t>
   </si>
   <si>
-    <t>A flag indicating if the day has not enough wear time (20 hrs). Should always be 0 under ProPASS mode</t>
-  </si>
-  <si>
     <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then it's a problem.</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
   </si>
   <si>
     <t>QC_Status</t>
-  </si>
-  <si>
-    <t>possible values: "OK", "Check" or "NotOK"</t>
   </si>
   <si>
     <r>
@@ -1267,10 +1258,49 @@
     <t>example "2022-03-28 15.12.34"</t>
   </si>
   <si>
-    <t>Follow this link for more information regarding ActiPASS output tables (files)</t>
-  </si>
-  <si>
     <t>Follow this link for more information regarding how these variables are saved to ActiPASS output tables (CSV files)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flag indicating if the day has not enough wear time (20 hrs). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should always be zero for the table </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The auto detected quality check flag for the day. possible values: "OK", "Check" or "NotOK" </t>
+  </si>
+  <si>
+    <r>
+      <t>ProPASS wide-format table (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) contains days only days where this flag is "OK"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1654,6 +1684,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1663,7 +1694,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1953,7 +1983,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1976,8 +2006,8 @@
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
-      <c r="A3" s="39" t="s">
-        <v>234</v>
+      <c r="A3" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2004,13 +2034,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2021,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -2047,10 +2077,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
@@ -2058,18 +2088,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
       <c r="B13" s="28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
@@ -2078,7 +2108,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
@@ -2087,7 +2117,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -2096,7 +2126,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -2105,18 +2135,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -2125,7 +2155,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2134,88 +2164,90 @@
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2224,7 +2256,7 @@
     </row>
     <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B30" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -2240,7 +2272,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -2249,7 +2281,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -2258,7 +2290,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>43</v>
@@ -2267,29 +2299,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>42</v>
@@ -2304,7 +2336,7 @@
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>97</v>
@@ -2313,18 +2345,18 @@
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>95</v>
@@ -2333,7 +2365,7 @@
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>36</v>
@@ -2342,13 +2374,13 @@
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2359,7 +2391,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>94</v>
@@ -2368,7 +2400,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -2377,7 +2409,7 @@
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>28</v>
@@ -2386,7 +2418,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -2395,7 +2427,7 @@
     </row>
     <row r="50" spans="1:3" ht="45">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>39</v>
@@ -2404,7 +2436,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>25</v>
@@ -2413,7 +2445,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -2422,7 +2454,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>18</v>
@@ -2430,7 +2462,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -2438,7 +2470,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>26</v>
@@ -2447,7 +2479,7 @@
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>40</v>
@@ -2456,7 +2488,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>27</v>
@@ -2465,22 +2497,22 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" ht="33" customHeight="1">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1">
@@ -2501,15 +2533,15 @@
         <v>7</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>86</v>
@@ -2517,10 +2549,10 @@
     </row>
     <row r="64" spans="1:3" ht="30">
       <c r="A64" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>87</v>
@@ -2528,10 +2560,10 @@
     </row>
     <row r="65" spans="1:3" ht="30">
       <c r="A65" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>88</v>
@@ -2539,10 +2571,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>92</v>
@@ -2550,10 +2582,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>93</v>
@@ -2561,10 +2593,10 @@
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
       <c r="A68" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>89</v>
@@ -2582,7 +2614,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>20</v>
@@ -2590,7 +2622,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>41</v>
@@ -2598,7 +2630,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>21</v>
@@ -2606,92 +2638,92 @@
     </row>
     <row r="76" spans="1:3" s="5" customFormat="1" ht="120">
       <c r="B76" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="37"/>
+      <c r="C78" s="38"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="37"/>
+      <c r="C79" s="38"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="37"/>
+      <c r="C80" s="38"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="37"/>
+      <c r="C81" s="38"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="37"/>
+      <c r="C82" s="38"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="37"/>
+      <c r="C83" s="38"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="37"/>
+      <c r="C84" s="38"/>
     </row>
     <row r="85" spans="1:3" ht="30">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="37"/>
+      <c r="C85" s="38"/>
     </row>
     <row r="88" spans="1:3" s="5" customFormat="1" ht="75">
       <c r="B88" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>48</v>
@@ -2699,293 +2731,293 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="39" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="38"/>
+      <c r="C91" s="39"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="38"/>
+      <c r="C92" s="39"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="38"/>
+      <c r="C93" s="39"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="38"/>
+      <c r="C94" s="39"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="38"/>
+      <c r="C95" s="39"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C96" s="38"/>
+      <c r="C96" s="39"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C97" s="38"/>
+      <c r="C97" s="39"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="39"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="38"/>
+      <c r="C99" s="39"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C100" s="38"/>
+      <c r="C100" s="39"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C101" s="38"/>
+      <c r="C101" s="39"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C102" s="38"/>
+      <c r="C102" s="39"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C103" s="38"/>
+      <c r="C103" s="39"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="38"/>
+      <c r="C104" s="39"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="38"/>
+      <c r="C105" s="39"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C106" s="38"/>
+      <c r="C106" s="39"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="38"/>
+      <c r="C107" s="39"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="38"/>
+      <c r="C108" s="39"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="38"/>
+      <c r="C109" s="39"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="38"/>
+      <c r="C110" s="39"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="38"/>
+      <c r="C111" s="39"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="38"/>
+      <c r="C112" s="39"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="38"/>
+      <c r="C113" s="39"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="38"/>
+      <c r="C114" s="39"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="38"/>
+      <c r="C115" s="39"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C116" s="38"/>
+      <c r="C116" s="39"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="38"/>
+      <c r="C117" s="39"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C118" s="38"/>
+      <c r="C118" s="39"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C119" s="38"/>
+      <c r="C119" s="39"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="38"/>
+      <c r="C120" s="39"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="38"/>
+      <c r="C121" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C757F-82A9-4FC1-AFE0-5C91EE3F12D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB7066-6590-465A-9EA2-A96A3FAA190D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,28 +742,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>not a part of SleepInterval_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> below</t>
-    </r>
-  </si>
-  <si>
     <t>A sleep interval is theoretically defined as the time between the first sleep onset and the last awakening. Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval</t>
   </si>
   <si>
@@ -830,9 +808,6 @@
     <t xml:space="preserve"> In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
   </si>
   <si>
-    <t xml:space="preserve">Time of activities in "Other" postures/activities which has somewhat horizontal thigh position. </t>
-  </si>
-  <si>
     <t>Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
   </si>
   <si>
@@ -855,28 +830,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of leisure days detected. A leisure day is where some or whole part of the day is flagged as leisure, but not as work. </t>
-  </si>
-  <si>
-    <r>
-      <t>There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> not a part of Awake_1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>variable below</t>
-    </r>
   </si>
   <si>
     <t>Date</t>
@@ -1301,6 +1254,53 @@
       </rPr>
       <t>) contains days only days where this flag is "OK"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not a part of Awake </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>variable below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>not a part of SleepInterval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> below</t>
+    </r>
+  </si>
+  <si>
+    <t>Time of activities in "Other" postures/activities with movements which cannot be classified into known activities/postures</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A3" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2037,10 +2037,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -2077,10 +2077,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
@@ -2088,18 +2088,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
       <c r="B13" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
@@ -2108,7 +2108,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -2135,18 +2135,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2164,29 +2164,29 @@
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>98</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>101</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>102</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>104</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>106</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>107</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B30" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>43</v>
@@ -2299,29 +2299,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>42</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>97</v>
@@ -2345,18 +2345,18 @@
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>95</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>36</v>
@@ -2374,13 +2374,13 @@
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>94</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>28</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>23</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="50" spans="1:3" ht="45">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>39</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>25</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>18</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>26</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="56" spans="1:3" ht="30">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>40</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>27</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>110</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="59" spans="1:3" ht="33" customHeight="1">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1">
@@ -2538,10 +2538,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>86</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="64" spans="1:3" ht="30">
       <c r="A64" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>87</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="65" spans="1:3" ht="30">
       <c r="A65" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>88</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>92</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>93</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
       <c r="A68" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>89</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>20</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>41</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>21</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>34</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>29</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>30</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>31</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>35</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>32</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>33</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="85" spans="1:3" ht="30">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>38</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>49</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>50</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>51</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>52</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>53</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>54</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>55</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>56</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>57</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>58</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>59</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>60</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>61</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>62</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>63</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>64</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>65</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>66</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>67</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>68</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>69</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>70</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>71</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>72</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>80</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>73</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>74</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>75</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>76</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>77</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>78</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>79</v>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB7066-6590-465A-9EA2-A96A3FAA190D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A52F3-0213-45ED-8708-3B90A9C04566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>varNames</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>Time of activities in "Other" postures/activities with movements which cannot be classified into known activities/postures</t>
+  </si>
+  <si>
+    <t>This is same as "Sleep" now. Possible sleep outside bedtimes are now named "LieStill"</t>
   </si>
 </sst>
 </file>
@@ -1983,8 +1986,8 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,7 +2373,9 @@
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="10" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" t="s">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pashe866/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A52F3-0213-45ED-8708-3B90A9C04566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9BC8A-7E55-594A-BA87-8900EE9DA1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1986,37 +1986,37 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:3" s="26" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
+    <row r="2" spans="1:3" s="26" customFormat="1" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="26" customFormat="1" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>227</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1"/>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickTop="1">
+    <row r="6" spans="1:3" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
+    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>223</v>
       </c>
@@ -2105,11 +2105,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
+    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -2253,27 +2253,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
         <v>225</v>
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" s="14" customFormat="1">
+    <row r="31" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -2331,13 +2331,13 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -2388,13 +2388,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
+    <row r="45" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" ht="45">
+    <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="30">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" ht="33" customHeight="1">
+    <row r="59" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -2520,17 +2520,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1">
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C60" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+    <row r="62" spans="1:3" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>85</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>168</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
         <v>169</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>170</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>171</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>173</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1">
+    <row r="68" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>172</v>
       </c>
@@ -2607,17 +2607,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1">
+    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1">
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>176</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" ht="120">
+    <row r="76" spans="1:3" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
         <v>113</v>
       </c>
@@ -2649,12 +2649,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C77" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C78" s="38"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C79" s="38"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C80" s="38"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>180</v>
       </c>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" s="38"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C82" s="38"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C83" s="38"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="C84" s="38"/>
     </row>
-    <row r="85" spans="1:3" ht="30">
+    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C85" s="38"/>
     </row>
-    <row r="88" spans="1:3" s="5" customFormat="1" ht="75">
+    <row r="88" spans="1:3" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B88" s="20" t="s">
         <v>112</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C91" s="39"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C92" s="39"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C93" s="39"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>197</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C94" s="39"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C95" s="39"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C96" s="39"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C97" s="39"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>201</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="C98" s="39"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C99" s="39"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C100" s="39"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C101" s="39"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="C102" s="39"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C103" s="39"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C104" s="39"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C105" s="39"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C106" s="39"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C107" s="39"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C108" s="39"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>212</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C109" s="39"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C110" s="39"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C111" s="39"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C112" s="39"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>216</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C113" s="39"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>195</v>
       </c>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C114" s="39"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>194</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C115" s="39"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>193</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C116" s="39"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C117" s="39"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C118" s="39"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>190</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="C119" s="39"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C120" s="39"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>188</v>
       </c>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pashe866/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9BC8A-7E55-594A-BA87-8900EE9DA1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338638C6-6601-4941-A248-351FA7F32967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
   <si>
     <t>varNames</t>
   </si>
@@ -1303,14 +1303,23 @@
     <t>Time of activities in "Other" postures/activities with movements which cannot be classified into known activities/postures</t>
   </si>
   <si>
-    <t>This is same as "Sleep" now. Possible sleep outside bedtimes are now named "LieStill"</t>
+    <t>Bedtime</t>
+  </si>
+  <si>
+    <t>The time within this calendar day which is flagged as belonging to a bedtime</t>
+  </si>
+  <si>
+    <t>This is same as "Sleep" now since ActiPASS version 1.50. Possible sleep outside bedtimes are now named "LieStill"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A calendar day usually contains more than one (full or partial) bedtimes. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a bedtime. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1983,40 +1992,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
-    <col min="3" max="3" width="154.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A3" s="36" t="s">
         <v>227</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" thickTop="1"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30.75" thickTop="1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2075,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2084,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
       <c r="B13" s="28" t="s">
         <v>223</v>
       </c>
@@ -2105,11 +2114,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2118,7 +2127,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -2127,7 +2136,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -2136,7 +2145,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -2156,7 +2165,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2165,7 +2174,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -2231,7 +2240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -2253,27 +2262,27 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B30" s="29" t="s">
         <v>225</v>
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="14" customFormat="1">
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
       <c r="B32" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -2282,7 +2291,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -2291,7 +2300,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -2331,13 +2340,13 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
       <c r="B39" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2346,688 +2355,699 @@
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C44" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
+      <c r="B46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="45">
+      <c r="A51" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="33" customHeight="1">
+      <c r="A60" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C60" s="19" t="s">
+    <row r="61" spans="1:3" s="5" customFormat="1">
+      <c r="C61" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
+    <row r="62" spans="1:3" s="5" customFormat="1">
+      <c r="B62" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+    <row r="63" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A63" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B63" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C63" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B64" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C64" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
+    <row r="65" spans="1:3" ht="30">
+      <c r="A65" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B65" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+    <row r="66" spans="1:3" ht="30">
+      <c r="A66" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B66" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C66" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B67" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B68" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
+    <row r="69" spans="1:3" s="5" customFormat="1">
+      <c r="A69" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B69" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="18" t="s">
+    <row r="70" spans="1:3" s="5" customFormat="1">
+      <c r="A70" s="24"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1">
+      <c r="B71" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>176</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="B76" s="12" t="s">
+    <row r="77" spans="1:3" s="5" customFormat="1" ht="120">
+      <c r="B77" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="37" t="s">
+    <row r="78" spans="1:3">
+      <c r="C78" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="38"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="C79" s="38"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="38"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="C80" s="38"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="38"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="C81" s="38"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="38"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="C82" s="38"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="38"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="C83" s="38"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="38"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="C84" s="38"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="38"/>
-    </row>
-    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="C85" s="38"/>
+    </row>
+    <row r="86" spans="1:3" ht="30">
+      <c r="A86" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="38"/>
-    </row>
-    <row r="88" spans="1:3" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="B88" s="20" t="s">
+      <c r="C86" s="38"/>
+    </row>
+    <row r="89" spans="1:3" s="5" customFormat="1" ht="75">
+      <c r="B89" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C89" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C91" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="39"/>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="C92" s="39"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="39"/>
-    </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="C93" s="39"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="39"/>
-    </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="C94" s="39"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="39"/>
-    </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B96" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="39"/>
-    </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="C96" s="39"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C96" s="39"/>
-    </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="C97" s="39"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>200</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C97" s="39"/>
-    </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="C98" s="39"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>201</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="39"/>
-    </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="39"/>
-    </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="C100" s="39"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C100" s="39"/>
-    </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="C101" s="39"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C101" s="39"/>
-    </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="C102" s="39"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C102" s="39"/>
-    </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="C103" s="39"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C103" s="39"/>
-    </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="C104" s="39"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="39"/>
-    </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="C105" s="39"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="39"/>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="C106" s="39"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C106" s="39"/>
-    </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="C107" s="39"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="39"/>
-    </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="C108" s="39"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="39"/>
-    </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C109" s="39"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="39"/>
-    </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="C110" s="39"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="39"/>
-    </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="C111" s="39"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>214</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="39"/>
-    </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="C112" s="39"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>215</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="39"/>
-    </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="C113" s="39"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B114" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="39"/>
-    </row>
-    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="C114" s="39"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="39"/>
-    </row>
-    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="C115" s="39"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="39"/>
-    </row>
-    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="C116" s="39"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>193</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C116" s="39"/>
-    </row>
-    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="C117" s="39"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="39"/>
-    </row>
-    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="C118" s="39"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C118" s="39"/>
-    </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="C119" s="39"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C119" s="39"/>
-    </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="C120" s="39"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
         <v>189</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="39"/>
-    </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="C121" s="39"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>188</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="39"/>
+      <c r="C122" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="C90:C121"/>
+    <mergeCell ref="C78:C86"/>
+    <mergeCell ref="C91:C122"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="actipass-variables" display="Please see ActiPASS output tables for more information where these variables are saved to." xr:uid="{F098AAF9-61B6-4AA4-94F5-D956F92B5131}"/>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338638C6-6601-4941-A248-351FA7F32967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B969F1-AE03-40D0-95D3-A1BE2D7B446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk160477595" localSheetId="0">Dictionary!$C$43</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="241">
   <si>
     <t>varNames</t>
   </si>
@@ -468,9 +471,6 @@
     <t>When a day has not enough walking, it affects the individual calibration (refrence-positions) and it can then lead to less accurate classifications</t>
   </si>
   <si>
-    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then it's a problem.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A flag indicating if more than 30 minutes of "other" exist in the day </t>
   </si>
   <si>
@@ -483,19 +483,10 @@
     <t>A sleep-interval (a mid-point of a sleep interval to be precise) is not found within the day</t>
   </si>
   <si>
-    <t>This is not necessarily a problem. If the missing sleep is a technical problem, this day will then have much higher sedentary times than the other days</t>
-  </si>
-  <si>
     <t>Number of primary bedtimes (mid points) found within the current day</t>
   </si>
   <si>
     <t>Number of possible extra bedtimes found within the current day</t>
-  </si>
-  <si>
-    <t>Sleep algorithms is used only within these primary bedtimes</t>
-  </si>
-  <si>
-    <t>Slepp algorithm is not used for extra bedtimes</t>
   </si>
   <si>
     <t>Time of all upright activities/postures (i.e. Stand + Move + Walk + Run + Stair)</t>
@@ -784,30 +775,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The total time of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>possible sleep outside a bedtime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (this is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes.).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
-  </si>
-  <si>
     <t>Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
   </si>
   <si>
@@ -1309,17 +1276,125 @@
     <t>The time within this calendar day which is flagged as belonging to a bedtime</t>
   </si>
   <si>
-    <t>This is same as "Sleep" now since ActiPASS version 1.50. Possible sleep outside bedtimes are now named "LieStill"</t>
-  </si>
-  <si>
     <t xml:space="preserve">A calendar day usually contains more than one (full or partial) bedtimes. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a bedtime. </t>
+  </si>
+  <si>
+    <r>
+      <t>“Sleep” is identifying in a process of two stages. During the first stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, periods of most likely times-in-bed are identified by considering long continuous periods of lying-down</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and also prolonged periods of sitting to a lesser extent.  Then “Sleep” is defined as the total time of sleep detected within such times-in-bed periods according to ActiPASS sleep algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1.	https://doi.org/10.3390/s21030904
+2.	https://doi.org/10.1111/jsr.13725</t>
+    </r>
+  </si>
+  <si>
+    <t>See definition of Sleep above</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The total time of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>possible sleep outside a bedtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(not available under ProPASS mode)</t>
+    </r>
+  </si>
+  <si>
+    <t>This is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
+  </si>
+  <si>
+    <t>Lying down is detected using the algorithm described in      https://doi.org/10.3390/s21030904</t>
+  </si>
+  <si>
+    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then, an individual calibration error, an orientation error or other technical error could be the cause of this .</t>
+  </si>
+  <si>
+    <t>This is not necessarily a problem. this day will then have much higher sedentary times than the other days. Missing sleep could be due to other problems such as individual calibration or orientation issues</t>
+  </si>
+  <si>
+    <t>Sleep algorithms is used only within these primary bedtimes. See definition of sleep below.</t>
+  </si>
+  <si>
+    <t>Slepp algorithm is not used for extra bedtimes. See definition of sleep below.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1469,6 +1544,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1501,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1599,6 +1703,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1609,7 +1726,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1705,6 +1822,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1995,7 +2118,7 @@
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +2142,7 @@
     </row>
     <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A3" s="36" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2046,13 +2169,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2063,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -2089,10 +2212,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
@@ -2100,18 +2223,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
       <c r="B13" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
@@ -2120,7 +2243,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
@@ -2129,7 +2252,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -2138,7 +2261,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -2147,18 +2270,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -2167,7 +2290,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2176,29 +2299,29 @@
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>98</v>
@@ -2209,57 +2332,57 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>105</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2268,7 +2391,7 @@
     </row>
     <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B30" s="29" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -2284,7 +2407,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -2293,7 +2416,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -2302,7 +2425,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>43</v>
@@ -2311,29 +2434,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>42</v>
@@ -2348,7 +2471,7 @@
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>97</v>
@@ -2357,55 +2480,57 @@
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="79.5">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="10" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2416,25 +2541,27 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>28</v>
@@ -2443,7 +2570,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>23</v>
@@ -2452,7 +2579,7 @@
     </row>
     <row r="51" spans="1:3" ht="45">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>39</v>
@@ -2461,7 +2588,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>25</v>
@@ -2470,7 +2597,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -2479,7 +2606,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>18</v>
@@ -2487,7 +2614,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>19</v>
@@ -2495,7 +2622,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>26</v>
@@ -2504,7 +2631,7 @@
     </row>
     <row r="57" spans="1:3" ht="30">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>40</v>
@@ -2513,7 +2640,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>27</v>
@@ -2522,22 +2649,22 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="33" customHeight="1">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1">
@@ -2558,15 +2685,15 @@
         <v>7</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>86</v>
@@ -2574,10 +2701,10 @@
     </row>
     <row r="65" spans="1:3" ht="30">
       <c r="A65" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>87</v>
@@ -2585,10 +2712,10 @@
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>88</v>
@@ -2596,10 +2723,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>92</v>
@@ -2607,10 +2734,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>93</v>
@@ -2618,10 +2745,10 @@
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>89</v>
@@ -2639,7 +2766,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>20</v>
@@ -2647,7 +2774,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>41</v>
@@ -2655,7 +2782,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -2663,7 +2790,7 @@
     </row>
     <row r="77" spans="1:3" s="5" customFormat="1" ht="120">
       <c r="B77" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>46</v>
@@ -2676,7 +2803,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>34</v>
@@ -2685,7 +2812,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>29</v>
@@ -2694,7 +2821,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>30</v>
@@ -2703,7 +2830,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>31</v>
@@ -2712,7 +2839,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>35</v>
@@ -2721,7 +2848,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>32</v>
@@ -2730,7 +2857,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>33</v>
@@ -2739,7 +2866,7 @@
     </row>
     <row r="86" spans="1:3" ht="30">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>38</v>
@@ -2748,7 +2875,7 @@
     </row>
     <row r="89" spans="1:3" s="5" customFormat="1" ht="75">
       <c r="B89" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>48</v>
@@ -2756,7 +2883,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>49</v>
@@ -2767,7 +2894,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>50</v>
@@ -2776,7 +2903,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>51</v>
@@ -2785,7 +2912,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>52</v>
@@ -2794,7 +2921,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>53</v>
@@ -2803,7 +2930,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>54</v>
@@ -2812,7 +2939,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>55</v>
@@ -2821,7 +2948,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>56</v>
@@ -2830,7 +2957,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>57</v>
@@ -2839,7 +2966,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>58</v>
@@ -2848,7 +2975,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>59</v>
@@ -2857,7 +2984,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>60</v>
@@ -2866,7 +2993,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>61</v>
@@ -2875,7 +3002,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>62</v>
@@ -2884,7 +3011,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>63</v>
@@ -2893,7 +3020,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>64</v>
@@ -2902,7 +3029,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>65</v>
@@ -2911,7 +3038,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>66</v>
@@ -2920,7 +3047,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>67</v>
@@ -2929,7 +3056,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>68</v>
@@ -2938,7 +3065,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>69</v>
@@ -2947,7 +3074,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>70</v>
@@ -2956,7 +3083,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>71</v>
@@ -2965,7 +3092,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>72</v>
@@ -2974,7 +3101,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>80</v>
@@ -2983,7 +3110,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>73</v>
@@ -2992,7 +3119,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>74</v>
@@ -3001,7 +3128,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>75</v>
@@ -3010,7 +3137,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>76</v>
@@ -3019,7 +3146,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>77</v>
@@ -3028,7 +3155,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>78</v>
@@ -3037,7 +3164,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>79</v>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B969F1-AE03-40D0-95D3-A1BE2D7B446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B19C0A-B867-4937-8A93-2D1E3BA4640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="243">
   <si>
     <t>varNames</t>
   </si>
@@ -733,9 +733,6 @@
     </r>
   </si>
   <si>
-    <t>A sleep interval is theoretically defined as the time between the first sleep onset and the last awakening. Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The  time </t>
     </r>
@@ -773,9 +770,6 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-  </si>
-  <si>
-    <t>Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
   </si>
   <si>
     <t xml:space="preserve">Whether the  is a work-day or a leisure day. </t>
@@ -1273,22 +1267,65 @@
     <t>Bedtime</t>
   </si>
   <si>
-    <t>The time within this calendar day which is flagged as belonging to a bedtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A calendar day usually contains more than one (full or partial) bedtimes. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a bedtime. </t>
-  </si>
-  <si>
-    <r>
-      <t>“Sleep” is identifying in a process of two stages. During the first stage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
+    <t>See definition of Sleep above</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The total time of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>possible sleep outside a bedtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(not available under ProPASS mode)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lying down is detected using the algorithm described in      https://doi.org/10.3390/s21030904</t>
+  </si>
+  <si>
+    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then, an individual calibration error, an orientation error or other technical error could be the cause of this .</t>
+  </si>
+  <si>
+    <t>This is not necessarily a problem. this day will then have much higher sedentary times than the other days. Missing sleep could be due to other problems such as individual calibration or orientation issues</t>
+  </si>
+  <si>
+    <t>Sleep algorithms is used only within these primary bedtimes. See definition of sleep below.</t>
+  </si>
+  <si>
+    <t>Slepp algorithm is not used for extra bedtimes. See definition of sleep below.</t>
+  </si>
+  <si>
+    <t>The time within this calendar day which is flagged as belonging to a times-in-bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sleep interval is theoretically defined as the time between the first sleep onset (see below for "Sleep") and the last awakening within each times-in-bed (see "Bedtime" above). Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval. </t>
+  </si>
+  <si>
+    <t>A calendar day usually contains more than one (full or partial) times-in-bed. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to most probable times-in-bed which are identified by considering long continuous periods of lying-down and also prolonged periods of sitting to a lesser extent.
+https://doi.org/10.3390/s21030904</t>
+  </si>
+  <si>
+    <r>
+      <t>“Sleep” is identified in a process of two stages.</t>
     </r>
     <r>
       <rPr>
@@ -1297,7 +1334,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>, periods of most likely times-in-bed are identified by considering long continuous periods of lying-down</t>
+      <t xml:space="preserve">  First periods of times-in-bed are identified (see above). Then “Sleep” is defined as the total time of sleep detected within such times-in-bed periods according to ActiPASS sleep algorithm</t>
     </r>
     <r>
       <rPr>
@@ -1307,25 +1344,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and also prolonged periods of sitting to a lesser extent.  Then “Sleep” is defined as the total time of sleep detected within such times-in-bed periods according to ActiPASS sleep algorithm</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -1335,66 +1353,27 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-1.	https://doi.org/10.3390/s21030904
-2.	https://doi.org/10.1111/jsr.13725</t>
-    </r>
-  </si>
-  <si>
-    <t>See definition of Sleep above</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The total time of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>possible sleep outside a bedtime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(not available under ProPASS mode)</t>
-    </r>
-  </si>
-  <si>
-    <t>This is found using running ActiPASS sleep algorithm on bouts of lying episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
-  </si>
-  <si>
-    <t>Lying down is detected using the algorithm described in      https://doi.org/10.3390/s21030904</t>
-  </si>
-  <si>
-    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then, an individual calibration error, an orientation error or other technical error could be the cause of this .</t>
-  </si>
-  <si>
-    <t>This is not necessarily a problem. this day will then have much higher sedentary times than the other days. Missing sleep could be due to other problems such as individual calibration or orientation issues</t>
-  </si>
-  <si>
-    <t>Sleep algorithms is used only within these primary bedtimes. See definition of sleep below.</t>
-  </si>
-  <si>
-    <t>Slepp algorithm is not used for extra bedtimes. See definition of sleep below.</t>
+https://doi.org/10.1111/jsr.13725</t>
+    </r>
+  </si>
+  <si>
+    <t>These behaviours are derived according to Acti4 algorithm:  https://doi.org/10.1123/jpah.2011-0347</t>
+  </si>
+  <si>
+    <t>Based on Acti4</t>
+  </si>
+  <si>
+    <t>Based on Acti4. Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
+  </si>
+  <si>
+    <t>This is found using running ActiPASS sleep algorithm on bouts of lying (see "Lying" below) episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1566,12 +1545,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1814,6 +1787,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1823,10 +1799,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2142,7 +2115,7 @@
     </row>
     <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A3" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2172,10 +2145,10 @@
         <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2186,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -2212,10 +2185,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
@@ -2223,18 +2196,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
       <c r="B13" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
@@ -2243,7 +2216,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
@@ -2252,7 +2225,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -2261,7 +2234,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -2270,18 +2243,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -2290,7 +2263,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2299,29 +2272,29 @@
     </row>
     <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>98</v>
@@ -2332,18 +2305,18 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>101</v>
@@ -2354,35 +2327,35 @@
     </row>
     <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2391,7 +2364,7 @@
     </row>
     <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
       <c r="B30" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="15"/>
     </row>
@@ -2407,7 +2380,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -2416,7 +2389,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -2425,7 +2398,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>43</v>
@@ -2434,29 +2407,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>42</v>
@@ -2471,66 +2444,66 @@
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="60">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="79.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="47.25">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2541,27 +2514,27 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="37"/>
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>28</v>
@@ -2570,101 +2543,123 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="10" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="45">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C54" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C55" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="30">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="33" customHeight="1">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1">
@@ -2690,10 +2685,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>86</v>
@@ -2701,10 +2696,10 @@
     </row>
     <row r="65" spans="1:3" ht="30">
       <c r="A65" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>87</v>
@@ -2712,10 +2707,10 @@
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>88</v>
@@ -2723,10 +2718,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>92</v>
@@ -2734,10 +2729,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>93</v>
@@ -2745,10 +2740,10 @@
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>89</v>
@@ -2766,7 +2761,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>20</v>
@@ -2774,7 +2769,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>41</v>
@@ -2782,7 +2777,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>21</v>
@@ -2797,81 +2792,81 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="38"/>
+      <c r="C79" s="39"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="38"/>
+      <c r="C80" s="39"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="38"/>
+      <c r="C81" s="39"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="38"/>
+      <c r="C82" s="39"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="38"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="38"/>
+      <c r="C84" s="39"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="38"/>
+      <c r="C85" s="39"/>
     </row>
     <row r="86" spans="1:3" ht="30">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="38"/>
+      <c r="C86" s="39"/>
     </row>
     <row r="89" spans="1:3" s="5" customFormat="1" ht="75">
       <c r="B89" s="20" t="s">
@@ -2883,299 +2878,300 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="39"/>
+      <c r="C92" s="40"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="40"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="39"/>
+      <c r="C94" s="40"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="39"/>
+      <c r="C95" s="40"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="39"/>
+      <c r="C96" s="40"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="39"/>
+      <c r="C97" s="40"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="39"/>
+      <c r="C98" s="40"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="39"/>
+      <c r="C99" s="40"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="39"/>
+      <c r="C100" s="40"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="39"/>
+      <c r="C101" s="40"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C102" s="39"/>
+      <c r="C102" s="40"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="39"/>
+      <c r="C103" s="40"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="39"/>
+      <c r="C104" s="40"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="39"/>
+      <c r="C105" s="40"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C106" s="39"/>
+      <c r="C106" s="40"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="39"/>
+      <c r="C107" s="40"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C108" s="39"/>
+      <c r="C108" s="40"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="39"/>
+      <c r="C109" s="40"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="39"/>
+      <c r="C110" s="40"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="39"/>
+      <c r="C111" s="40"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="39"/>
+      <c r="C112" s="40"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="39"/>
+      <c r="C113" s="40"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="39"/>
+      <c r="C114" s="40"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C115" s="39"/>
+      <c r="C115" s="40"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C116" s="39"/>
+      <c r="C116" s="40"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C117" s="39"/>
+      <c r="C117" s="40"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="39"/>
+      <c r="C118" s="40"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="39"/>
+      <c r="C119" s="40"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="39"/>
+      <c r="C120" s="40"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="39"/>
+      <c r="C121" s="40"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="39"/>
+      <c r="C122" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C78:C86"/>
     <mergeCell ref="C91:C122"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="actipass-variables" display="Please see ActiPASS output tables for more information where these variables are saved to." xr:uid="{F098AAF9-61B6-4AA4-94F5-D956F92B5131}"/>
   </hyperlinks>

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B19C0A-B867-4937-8A93-2D1E3BA4640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4657E9A-1608-4516-A34B-96C8CDB01B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,8 +1320,19 @@
     <t xml:space="preserve">A sleep interval is theoretically defined as the time between the first sleep onset (see below for "Sleep") and the last awakening within each times-in-bed (see "Bedtime" above). Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval. </t>
   </si>
   <si>
-    <t>A calendar day usually contains more than one (full or partial) times-in-bed. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to most probable times-in-bed which are identified by considering long continuous periods of lying-down and also prolonged periods of sitting to a lesser extent.
-https://doi.org/10.3390/s21030904</t>
+    <t>These behaviours are derived according to Acti4 algorithm:  https://doi.org/10.1123/jpah.2011-0347</t>
+  </si>
+  <si>
+    <t>Based on Acti4</t>
+  </si>
+  <si>
+    <t>Based on Acti4. Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
+  </si>
+  <si>
+    <t>A calendar day usually contains more than one (full or partial) times-in-bed. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to most probable times-in-bed which are identified by considering long continuous periods of lying-down (see "Lie" below) and also prolonged periods of sitting to a lesser extent.</t>
+  </si>
+  <si>
+    <t>This is found using running ActiPASS sleep algorithm on bouts of lying (see "Lie" below) episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
   </si>
   <si>
     <r>
@@ -1334,7 +1345,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  First periods of times-in-bed are identified (see above). Then “Sleep” is defined as the total time of sleep detected within such times-in-bed periods according to ActiPASS sleep algorithm</t>
+      <t xml:space="preserve">  First periods of times-in-bed are identified (see above). Then “Sleep” is defined as the total time of sleep detected within such periods of times-in-bed  according to ActiPASS sleep algorithm</t>
     </r>
     <r>
       <rPr>
@@ -1355,18 +1366,6 @@
       <t xml:space="preserve">
 https://doi.org/10.1111/jsr.13725</t>
     </r>
-  </si>
-  <si>
-    <t>These behaviours are derived according to Acti4 algorithm:  https://doi.org/10.1123/jpah.2011-0347</t>
-  </si>
-  <si>
-    <t>Based on Acti4</t>
-  </si>
-  <si>
-    <t>Based on Acti4. Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
-  </si>
-  <si>
-    <t>This is found using running ActiPASS sleep algorithm on bouts of lying (see "Lying" below) episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
   </si>
 </sst>
 </file>
@@ -1790,6 +1789,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,9 +1800,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2451,7 +2450,7 @@
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="60">
+    <row r="41" spans="1:3" ht="45">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>235</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45">
@@ -2481,7 +2480,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
@@ -2503,7 +2502,7 @@
         <v>229</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -2519,7 +2518,7 @@
       <c r="B47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="38" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2549,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45">
@@ -2560,7 +2559,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2571,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2582,7 +2581,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2593,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2604,7 +2603,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2615,7 +2614,7 @@
         <v>26</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30">
@@ -2626,7 +2625,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2637,7 +2636,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2648,7 +2647,7 @@
         <v>106</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="33" customHeight="1">
@@ -2659,7 +2658,7 @@
         <v>226</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1">
@@ -2792,7 +2791,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="39" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2803,7 +2802,7 @@
       <c r="B79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="39"/>
+      <c r="C79" s="40"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -2812,7 +2811,7 @@
       <c r="B80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="39"/>
+      <c r="C80" s="40"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
@@ -2821,7 +2820,7 @@
       <c r="B81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="39"/>
+      <c r="C81" s="40"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
@@ -2830,7 +2829,7 @@
       <c r="B82" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="39"/>
+      <c r="C82" s="40"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
@@ -2839,7 +2838,7 @@
       <c r="B83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="39"/>
+      <c r="C83" s="40"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
@@ -2848,7 +2847,7 @@
       <c r="B84" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="39"/>
+      <c r="C84" s="40"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
@@ -2857,7 +2856,7 @@
       <c r="B85" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="39"/>
+      <c r="C85" s="40"/>
     </row>
     <row r="86" spans="1:3" ht="30">
       <c r="A86" t="s">
@@ -2866,7 +2865,7 @@
       <c r="B86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="39"/>
+      <c r="C86" s="40"/>
     </row>
     <row r="89" spans="1:3" s="5" customFormat="1" ht="75">
       <c r="B89" s="20" t="s">
@@ -2883,7 +2882,7 @@
       <c r="B91" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="41" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2894,7 +2893,7 @@
       <c r="B92" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="40"/>
+      <c r="C92" s="41"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
@@ -2903,7 +2902,7 @@
       <c r="B93" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="40"/>
+      <c r="C93" s="41"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
@@ -2912,7 +2911,7 @@
       <c r="B94" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="40"/>
+      <c r="C94" s="41"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
@@ -2921,7 +2920,7 @@
       <c r="B95" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="40"/>
+      <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
@@ -2930,7 +2929,7 @@
       <c r="B96" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="40"/>
+      <c r="C96" s="41"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
@@ -2939,7 +2938,7 @@
       <c r="B97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="40"/>
+      <c r="C97" s="41"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
@@ -2948,7 +2947,7 @@
       <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="40"/>
+      <c r="C98" s="41"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
@@ -2957,7 +2956,7 @@
       <c r="B99" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="40"/>
+      <c r="C99" s="41"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
@@ -2966,7 +2965,7 @@
       <c r="B100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="40"/>
+      <c r="C100" s="41"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
@@ -2975,7 +2974,7 @@
       <c r="B101" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="40"/>
+      <c r="C101" s="41"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
@@ -2984,7 +2983,7 @@
       <c r="B102" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C102" s="40"/>
+      <c r="C102" s="41"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
@@ -2993,7 +2992,7 @@
       <c r="B103" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="40"/>
+      <c r="C103" s="41"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
@@ -3002,7 +3001,7 @@
       <c r="B104" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="40"/>
+      <c r="C104" s="41"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
@@ -3011,7 +3010,7 @@
       <c r="B105" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="40"/>
+      <c r="C105" s="41"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
@@ -3020,7 +3019,7 @@
       <c r="B106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C106" s="40"/>
+      <c r="C106" s="41"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
@@ -3029,7 +3028,7 @@
       <c r="B107" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="40"/>
+      <c r="C107" s="41"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
@@ -3038,7 +3037,7 @@
       <c r="B108" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C108" s="40"/>
+      <c r="C108" s="41"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
@@ -3047,7 +3046,7 @@
       <c r="B109" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="40"/>
+      <c r="C109" s="41"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
@@ -3056,7 +3055,7 @@
       <c r="B110" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="40"/>
+      <c r="C110" s="41"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
@@ -3065,7 +3064,7 @@
       <c r="B111" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="40"/>
+      <c r="C111" s="41"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
@@ -3074,7 +3073,7 @@
       <c r="B112" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="40"/>
+      <c r="C112" s="41"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
@@ -3083,7 +3082,7 @@
       <c r="B113" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="40"/>
+      <c r="C113" s="41"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
@@ -3092,7 +3091,7 @@
       <c r="B114" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="40"/>
+      <c r="C114" s="41"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
@@ -3101,7 +3100,7 @@
       <c r="B115" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C115" s="40"/>
+      <c r="C115" s="41"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
@@ -3110,7 +3109,7 @@
       <c r="B116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C116" s="40"/>
+      <c r="C116" s="41"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
@@ -3119,7 +3118,7 @@
       <c r="B117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C117" s="40"/>
+      <c r="C117" s="41"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
@@ -3128,7 +3127,7 @@
       <c r="B118" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="40"/>
+      <c r="C118" s="41"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
@@ -3137,7 +3136,7 @@
       <c r="B119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="40"/>
+      <c r="C119" s="41"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
@@ -3146,7 +3145,7 @@
       <c r="B120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="40"/>
+      <c r="C120" s="41"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
@@ -3155,7 +3154,7 @@
       <c r="B121" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="40"/>
+      <c r="C121" s="41"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
@@ -3164,7 +3163,7 @@
       <c r="B122" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="40"/>
+      <c r="C122" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
+++ b/docs/Extra/ActiPASS_Variable-definitions_NewFormat_ActiPASS_Version_1.50.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Coding\Matlab\AMM\Ergo-Tools\ActiPASS\docs\Extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4657E9A-1608-4516-A34B-96C8CDB01B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D09A24-2465-463B-95B4-9AA79042197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk160477595" localSheetId="0">Dictionary!$C$43</definedName>
+    <definedName name="_Hlk160477595" localSheetId="0">Dictionary!$C$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="245">
   <si>
     <t>varNames</t>
   </si>
@@ -1078,6 +1078,208 @@
     <t xml:space="preserve">Following variables are derived daily. A day is a calendar day starting from 00:00:00 and ending with 23:59:59. The first and last day could be partial days. </t>
   </si>
   <si>
+    <t>A day can be further sub-divided into domains such as 'Work' and 'Leisure' and following variables can be generated for each such sub-domain within a calendar day.  Such variables will be prefixed with the domain (Ex. Work_Duration) This additional domain specific data is available only when the additional diary containing such data is included in ActiPASS processing, and also the relevant domain names are specified under "Stat Domains" options before stats generation.</t>
+  </si>
+  <si>
+    <t>example "2022-03-28 15.12.34"</t>
+  </si>
+  <si>
+    <t>Follow this link for more information regarding how these variables are saved to ActiPASS output tables (CSV files)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flag indicating if the day has not enough wear time (20 hrs). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should always be zero for the table </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The auto detected quality check flag for the day. possible values: "OK", "Check" or "NotOK" </t>
+  </si>
+  <si>
+    <r>
+      <t>ProPASS wide-format table (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) contains days only days where this flag is "OK"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not a part of Awake </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>variable below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>not a part of SleepInterval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> below</t>
+    </r>
+  </si>
+  <si>
+    <t>Time of activities in "Other" postures/activities with movements which cannot be classified into known activities/postures</t>
+  </si>
+  <si>
+    <t>Bedtime</t>
+  </si>
+  <si>
+    <t>See definition of Sleep above</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The total time of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>possible sleep outside a bedtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(not available under ProPASS mode)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lying down is detected using the algorithm described in      https://doi.org/10.3390/s21030904</t>
+  </si>
+  <si>
+    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then, an individual calibration error, an orientation error or other technical error could be the cause of this .</t>
+  </si>
+  <si>
+    <t>This is not necessarily a problem. this day will then have much higher sedentary times than the other days. Missing sleep could be due to other problems such as individual calibration or orientation issues</t>
+  </si>
+  <si>
+    <t>Sleep algorithms is used only within these primary bedtimes. See definition of sleep below.</t>
+  </si>
+  <si>
+    <t>Slepp algorithm is not used for extra bedtimes. See definition of sleep below.</t>
+  </si>
+  <si>
+    <t>The time within this calendar day which is flagged as belonging to a times-in-bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sleep interval is theoretically defined as the time between the first sleep onset (see below for "Sleep") and the last awakening within each times-in-bed (see "Bedtime" above). Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval. </t>
+  </si>
+  <si>
+    <t>These behaviours are derived according to Acti4 algorithm:  https://doi.org/10.1123/jpah.2011-0347</t>
+  </si>
+  <si>
+    <t>Based on Acti4</t>
+  </si>
+  <si>
+    <t>Based on Acti4. Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
+  </si>
+  <si>
+    <t>A calendar day usually contains more than one (full or partial) times-in-bed. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to most probable times-in-bed which are identified by considering long continuous periods of lying-down (see "Lie" below) and also prolonged periods of sitting to a lesser extent.</t>
+  </si>
+  <si>
+    <t>This is found using running ActiPASS sleep algorithm on bouts of lying (see "Lie" below) episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
+  </si>
+  <si>
+    <r>
+      <t>“Sleep” is identified in a process of two stages.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  First periods of times-in-bed are identified (see above). Then “Sleep” is defined as the total time of sleep detected within such periods of times-in-bed  according to ActiPASS sleep algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+https://doi.org/10.1111/jsr.13725</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1161,218 +1363,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-    Only days determined to be valid (see below) are listed in the table.
-    Each variable is suffixed with day number. For example the suffix  "_1" in "Date_1" indicates the day number 1. </t>
-    </r>
-  </si>
-  <si>
-    <t>A day can be further sub-divided into domains such as 'Work' and 'Leisure' and following variables can be generated for each such sub-domain within a calendar day.  Such variables will be prefixed with the domain (Ex. Work_Duration) This additional domain specific data is available only when the additional diary containing such data is included in ActiPASS processing, and also the relevant domain names are specified under "Stat Domains" options before stats generation.</t>
-  </si>
-  <si>
-    <t>example "2022-03-28 15.12.34"</t>
-  </si>
-  <si>
-    <t>Follow this link for more information regarding how these variables are saved to ActiPASS output tables (CSV files)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A flag indicating if the day has not enough wear time (20 hrs). </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Should always be zero for the table </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The auto detected quality check flag for the day. possible values: "OK", "Check" or "NotOK" </t>
-  </si>
-  <si>
-    <r>
-      <t>ProPASS wide-format table (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"ProPASS_WideFormat_MasterFile.csv"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) contains days only days where this flag is "OK"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> not a part of Awake </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>variable below</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There could be more than one sleep-intervals happening for a given calendar day. It's important to highlight that this time is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>not a part of SleepInterval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> below</t>
-    </r>
-  </si>
-  <si>
-    <t>Time of activities in "Other" postures/activities with movements which cannot be classified into known activities/postures</t>
-  </si>
-  <si>
-    <t>Bedtime</t>
-  </si>
-  <si>
-    <t>See definition of Sleep above</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The total time of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>possible sleep outside a bedtime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(not available under ProPASS mode)</t>
-    </r>
-  </si>
-  <si>
-    <t>Lying down is detected using the algorithm described in      https://doi.org/10.3390/s21030904</t>
-  </si>
-  <si>
-    <t>Too much other itself is not necessarily a problem. Those times can be actual activities/scenarios which are not dtected by ActiPASS. However if it is combined with no-walking or no standing then, an individual calibration error, an orientation error or other technical error could be the cause of this .</t>
-  </si>
-  <si>
-    <t>This is not necessarily a problem. this day will then have much higher sedentary times than the other days. Missing sleep could be due to other problems such as individual calibration or orientation issues</t>
-  </si>
-  <si>
-    <t>Sleep algorithms is used only within these primary bedtimes. See definition of sleep below.</t>
-  </si>
-  <si>
-    <t>Slepp algorithm is not used for extra bedtimes. See definition of sleep below.</t>
-  </si>
-  <si>
-    <t>The time within this calendar day which is flagged as belonging to a times-in-bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sleep interval is theoretically defined as the time between the first sleep onset (see below for "Sleep") and the last awakening within each times-in-bed (see "Bedtime" above). Therefore, a calendar day usually contains more than one (full or partial) sleep-intervals. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to a sleep-interval. </t>
-  </si>
-  <si>
-    <t>These behaviours are derived according to Acti4 algorithm:  https://doi.org/10.1123/jpah.2011-0347</t>
-  </si>
-  <si>
-    <t>Based on Acti4</t>
-  </si>
-  <si>
-    <t>Based on Acti4. Time of 'Other' could be high due to various reasons such as: actual activities such gym equipment, rowing/kayaking or individual calibration issues.</t>
-  </si>
-  <si>
-    <t>A calendar day usually contains more than one (full or partial) times-in-bed. This variable is calculated by counting the number of epochs (1s) which are flagged as belonging to most probable times-in-bed which are identified by considering long continuous periods of lying-down (see "Lie" below) and also prolonged periods of sitting to a lesser extent.</t>
-  </si>
-  <si>
-    <t>This is found using running ActiPASS sleep algorithm on bouts of lying (see "Lie" below) episodes outside bedtimes. In ActiPASS versions prior to 1.50 this was called "SleepOutBed"</t>
-  </si>
-  <si>
-    <r>
-      <t>“Sleep” is identified in a process of two stages.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  First periods of times-in-bed are identified (see above). Then “Sleep” is defined as the total time of sleep detected within such periods of times-in-bed  according to ActiPASS sleep algorithm</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-https://doi.org/10.1111/jsr.13725</t>
-    </r>
+      Only days determined to be valid (see below) are listed.
+      Each variable is suffixed with day number. For example the suffix  "_1" in "Date_1" indicates the day number 1. </t>
+    </r>
+  </si>
+  <si>
+    <t>RefPosInfo</t>
+  </si>
+  <si>
+    <t>Automatic individual calibration angles (in degrees) for this day. Given as absolute inclination and forward backward inclination of thigh at the reference-position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2087,40 +2093,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="79" style="3" customWidth="1"/>
     <col min="3" max="3" width="154.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:3" s="26" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
+    <row r="2" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="26" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1"/>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickTop="1">
+    <row r="6" spans="1:3" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2158,10 +2164,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2170,7 +2176,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2185,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" ht="30">
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2201,19 +2207,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1">
+    <row r="13" spans="1:3" s="17" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>215</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2222,7 +2228,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2231,7 +2237,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -2240,7 +2246,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2260,7 +2266,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -2269,906 +2275,915 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="10" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" s="14" customFormat="1" ht="90">
-      <c r="B30" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:3" s="14" customFormat="1">
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="91.5" customHeight="1">
-      <c r="B32" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="C42" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="37"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="48.75" customHeight="1">
-      <c r="B39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="30">
-      <c r="A40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" ht="45">
-      <c r="A41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="45">
-      <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="47.25">
-      <c r="A43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B46" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="37"/>
-    </row>
-    <row r="49" spans="1:3" ht="30">
-      <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45">
-      <c r="A51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30">
-      <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="33" customHeight="1">
-      <c r="A60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="5" customFormat="1">
-      <c r="C61" s="19" t="s">
+    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="B62" s="19" t="s">
+    <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="409.5" customHeight="1" thickBot="1">
-      <c r="A63" s="22" t="s">
+    <row r="64" spans="1:3" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B64" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C64" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="24" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B65" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30">
-      <c r="A65" s="24" t="s">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B66" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C66" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30">
-      <c r="A66" s="24" t="s">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B67" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="24" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B68" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="24" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B69" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1">
-      <c r="A69" s="24" t="s">
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B70" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C70" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-    </row>
-    <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="B71" s="18" t="s">
+    <row r="71" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="5" customFormat="1" ht="120">
-      <c r="B77" s="12" t="s">
+    <row r="78" spans="1:3" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B78" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="C78" s="39" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>169</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="40"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="C80" s="40"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="40"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="C81" s="40"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="40"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="C82" s="40"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="40"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="C83" s="40"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="40"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C84" s="40"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B85" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="40"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="C85" s="40"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="40"/>
-    </row>
-    <row r="86" spans="1:3" ht="30">
-      <c r="A86" t="s">
+      <c r="C86" s="40"/>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="40"/>
-    </row>
-    <row r="89" spans="1:3" s="5" customFormat="1" ht="75">
-      <c r="B89" s="20" t="s">
+      <c r="C87" s="40"/>
+    </row>
+    <row r="90" spans="1:3" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B90" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C90" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C92" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="41"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="C93" s="41"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="41"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="C94" s="41"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="41"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="C95" s="41"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B96" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="41"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="C96" s="41"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="41"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="C97" s="41"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="41"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="C98" s="41"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="41"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="C99" s="41"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>193</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="41"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="C100" s="41"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="41"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="C101" s="41"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="41"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="C102" s="41"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>196</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C102" s="41"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="C103" s="41"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>197</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="41"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="C104" s="41"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>198</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="41"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="C105" s="41"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="41"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="C106" s="41"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>200</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C106" s="41"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="C107" s="41"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>201</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="41"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="C108" s="41"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>202</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C108" s="41"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="C109" s="41"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>203</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="41"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="C110" s="41"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="41"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="C111" s="41"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>205</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="41"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="C112" s="41"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>206</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="41"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="C113" s="41"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>207</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B114" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="41"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="C114" s="41"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>208</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="41"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="C115" s="41"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>187</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C115" s="41"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="C116" s="41"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>186</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C116" s="41"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="C117" s="41"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C117" s="41"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="C118" s="41"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>184</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="41"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="C119" s="41"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>183</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="41"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="C120" s="41"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>182</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="41"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="C121" s="41"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>181</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="41"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="C122" s="41"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>180</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="41"/>
+      <c r="C123" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C78:C86"/>
-    <mergeCell ref="C91:C122"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="C92:C123"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
